--- a/vgp_database/Dinan_Bay_lavas.xlsx
+++ b/vgp_database/Dinan_Bay_lavas.xlsx
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
+    <t>R2a</t>
   </si>
   <si>
-    <t>R2.2</t>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
+    <t>R5a</t>
   </si>
   <si>
-    <t>R5.2</t>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -294,13 +294,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -337,7 +351,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -367,6 +381,9 @@
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -1148,7 +1165,7 @@
       <c r="AK8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AL8" s="12" t="s">
+      <c r="AL8" s="24" t="s">
         <v>40</v>
       </c>
       <c r="AM8" s="4"/>
@@ -1164,10 +1181,10 @@
       <c r="B9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="25">
         <v>53.6688805570962</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="25">
         <v>-126.671926812431</v>
       </c>
       <c r="E9" s="14">
@@ -1188,7 +1205,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="17"/>
@@ -1240,7 +1257,7 @@
       <c r="AJ9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK9" s="26" t="s">
+      <c r="AK9" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL9" s="22" t="s">
@@ -1258,10 +1275,10 @@
       <c r="B10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="25">
         <v>53.6541864052076</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="25">
         <v>-126.656089183881</v>
       </c>
       <c r="E10" s="14">
@@ -1282,7 +1299,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="25"/>
+      <c r="M10" s="26"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
@@ -1334,7 +1351,7 @@
       <c r="AJ10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK10" s="26" t="s">
+      <c r="AK10" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL10" s="22" t="s">
@@ -1351,10 +1368,10 @@
       <c r="B11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="25">
         <v>53.6472673087052</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="25">
         <v>-126.67009169118</v>
       </c>
       <c r="E11" s="14">
@@ -1375,7 +1392,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="17"/>
@@ -1427,7 +1444,7 @@
       <c r="AJ11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK11" s="26" t="s">
+      <c r="AK11" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL11" s="22" t="s">
@@ -1444,10 +1461,10 @@
       <c r="B12" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="25">
         <v>53.6499616116301</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="25">
         <v>-126.669943084495</v>
       </c>
       <c r="E12" s="14">
@@ -1468,7 +1485,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="17"/>
@@ -1520,7 +1537,7 @@
       <c r="AJ12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK12" s="26" t="s">
+      <c r="AK12" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL12" s="22" t="s">
@@ -1537,10 +1554,10 @@
       <c r="B13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="25">
         <v>53.6455593030816</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="25">
         <v>-126.67472522488</v>
       </c>
       <c r="E13" s="14">
@@ -1561,7 +1578,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="25"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="17"/>
@@ -1613,7 +1630,7 @@
       <c r="AJ13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK13" s="26" t="s">
+      <c r="AK13" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL13" s="22" t="s">
@@ -1630,10 +1647,10 @@
       <c r="B14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="25">
         <v>53.6456180058385</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="25">
         <v>-126.677748222207</v>
       </c>
       <c r="E14" s="14">
@@ -1654,7 +1671,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="17"/>
@@ -1706,7 +1723,7 @@
       <c r="AJ14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK14" s="26" t="s">
+      <c r="AK14" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL14" s="22" t="s">
@@ -1723,10 +1740,10 @@
       <c r="B15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="25">
         <v>53.6500791888887</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="25">
         <v>-126.675989699072</v>
       </c>
       <c r="E15" s="14">
@@ -1747,7 +1764,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="17"/>
@@ -1799,7 +1816,7 @@
       <c r="AJ15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK15" s="26" t="s">
+      <c r="AK15" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL15" s="22" t="s">
@@ -1816,10 +1833,10 @@
       <c r="B16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="25">
         <v>53.6433033573848</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="25">
         <v>-126.697544799636</v>
       </c>
       <c r="E16" s="14">
@@ -1840,7 +1857,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="25"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="17"/>
@@ -1892,7 +1909,7 @@
       <c r="AJ16" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK16" s="26" t="s">
+      <c r="AK16" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL16" s="22" t="s">
@@ -1909,10 +1926,10 @@
       <c r="B17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="25">
         <v>53.6405216770232</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="25">
         <v>-126.69315759257</v>
       </c>
       <c r="E17" s="14">
@@ -1933,7 +1950,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="17"/>
@@ -1985,7 +2002,7 @@
       <c r="AJ17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK17" s="26" t="s">
+      <c r="AK17" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL17" s="22" t="s">
@@ -2002,10 +2019,10 @@
       <c r="B18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="25">
         <v>53.6413322974897</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="25">
         <v>-126.688574470915</v>
       </c>
       <c r="E18" s="14">
@@ -2026,7 +2043,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
@@ -2078,7 +2095,7 @@
       <c r="AJ18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK18" s="26" t="s">
+      <c r="AK18" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL18" s="22" t="s">
@@ -2095,10 +2112,10 @@
       <c r="B19" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="25">
         <v>53.6722586348384</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="25">
         <v>-126.6838530397</v>
       </c>
       <c r="E19" s="14">
@@ -2119,7 +2136,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="25"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="17"/>
@@ -2171,7 +2188,7 @@
       <c r="AJ19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK19" s="26" t="s">
+      <c r="AK19" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL19" s="22" t="s">
@@ -2188,10 +2205,10 @@
       <c r="B20" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="25">
         <v>53.6376229271893</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="25">
         <v>-126.682726057805</v>
       </c>
       <c r="E20" s="14">
@@ -2212,7 +2229,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
@@ -2264,7 +2281,7 @@
       <c r="AJ20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK20" s="26" t="s">
+      <c r="AK20" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL20" s="22" t="s">
@@ -2281,10 +2298,10 @@
       <c r="B21" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="25">
         <v>53.6422012067416</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="25">
         <v>-126.687013950999</v>
       </c>
       <c r="E21" s="14">
@@ -2305,7 +2322,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="17"/>
@@ -2357,7 +2374,7 @@
       <c r="AJ21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK21" s="26" t="s">
+      <c r="AK21" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AL21" s="22" t="s">
@@ -2853,3885 +2870,3885 @@
     <row r="33" ht="15.75" customHeight="1">
       <c r="G33" s="4"/>
       <c r="H33" s="14"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="G34" s="4"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="28"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="28"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="J110" s="27"/>
-      <c r="K110" s="27"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="28"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="28"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="28"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="28"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="J116" s="27"/>
-      <c r="K116" s="27"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="28"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="28"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="28"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="J120" s="27"/>
-      <c r="K120" s="27"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="28"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="J121" s="27"/>
-      <c r="K121" s="27"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="28"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="J122" s="27"/>
-      <c r="K122" s="27"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="28"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="J123" s="27"/>
-      <c r="K123" s="27"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="28"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="J124" s="27"/>
-      <c r="K124" s="27"/>
+      <c r="J124" s="28"/>
+      <c r="K124" s="28"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="J125" s="27"/>
-      <c r="K125" s="27"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="28"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="J126" s="27"/>
-      <c r="K126" s="27"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="28"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="J127" s="27"/>
-      <c r="K127" s="27"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="28"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="J128" s="27"/>
-      <c r="K128" s="27"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="28"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="J129" s="27"/>
-      <c r="K129" s="27"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="28"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="J130" s="27"/>
-      <c r="K130" s="27"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="28"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="J131" s="27"/>
-      <c r="K131" s="27"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="28"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="J132" s="27"/>
-      <c r="K132" s="27"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="28"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="J133" s="27"/>
-      <c r="K133" s="27"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="28"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="J134" s="27"/>
-      <c r="K134" s="27"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="28"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="J135" s="27"/>
-      <c r="K135" s="27"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="28"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="J136" s="27"/>
-      <c r="K136" s="27"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="28"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="J137" s="27"/>
-      <c r="K137" s="27"/>
+      <c r="J137" s="28"/>
+      <c r="K137" s="28"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="J138" s="27"/>
-      <c r="K138" s="27"/>
+      <c r="J138" s="28"/>
+      <c r="K138" s="28"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="J139" s="27"/>
-      <c r="K139" s="27"/>
+      <c r="J139" s="28"/>
+      <c r="K139" s="28"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="J140" s="27"/>
-      <c r="K140" s="27"/>
+      <c r="J140" s="28"/>
+      <c r="K140" s="28"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="J141" s="27"/>
-      <c r="K141" s="27"/>
+      <c r="J141" s="28"/>
+      <c r="K141" s="28"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="J142" s="27"/>
-      <c r="K142" s="27"/>
+      <c r="J142" s="28"/>
+      <c r="K142" s="28"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="J143" s="27"/>
-      <c r="K143" s="27"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="28"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="J144" s="27"/>
-      <c r="K144" s="27"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="28"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="J145" s="27"/>
-      <c r="K145" s="27"/>
+      <c r="J145" s="28"/>
+      <c r="K145" s="28"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="J146" s="27"/>
-      <c r="K146" s="27"/>
+      <c r="J146" s="28"/>
+      <c r="K146" s="28"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="J147" s="27"/>
-      <c r="K147" s="27"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="28"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="J148" s="27"/>
-      <c r="K148" s="27"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="28"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="J149" s="27"/>
-      <c r="K149" s="27"/>
+      <c r="J149" s="28"/>
+      <c r="K149" s="28"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="J150" s="27"/>
-      <c r="K150" s="27"/>
+      <c r="J150" s="28"/>
+      <c r="K150" s="28"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="J151" s="27"/>
-      <c r="K151" s="27"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="28"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="J152" s="27"/>
-      <c r="K152" s="27"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="28"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="J153" s="27"/>
-      <c r="K153" s="27"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="28"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="J154" s="27"/>
-      <c r="K154" s="27"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="28"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="J155" s="27"/>
-      <c r="K155" s="27"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="28"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="J156" s="27"/>
-      <c r="K156" s="27"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="28"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="J157" s="27"/>
-      <c r="K157" s="27"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="28"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="J158" s="27"/>
-      <c r="K158" s="27"/>
+      <c r="J158" s="28"/>
+      <c r="K158" s="28"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="J159" s="27"/>
-      <c r="K159" s="27"/>
+      <c r="J159" s="28"/>
+      <c r="K159" s="28"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="J160" s="27"/>
-      <c r="K160" s="27"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="28"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="J161" s="27"/>
-      <c r="K161" s="27"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="28"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="J162" s="27"/>
-      <c r="K162" s="27"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="28"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="J163" s="27"/>
-      <c r="K163" s="27"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="28"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="J164" s="27"/>
-      <c r="K164" s="27"/>
+      <c r="J164" s="28"/>
+      <c r="K164" s="28"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="J165" s="27"/>
-      <c r="K165" s="27"/>
+      <c r="J165" s="28"/>
+      <c r="K165" s="28"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="J166" s="27"/>
-      <c r="K166" s="27"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="28"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="J167" s="27"/>
-      <c r="K167" s="27"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="28"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="J168" s="27"/>
-      <c r="K168" s="27"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="28"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="J169" s="27"/>
-      <c r="K169" s="27"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="28"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="J170" s="27"/>
-      <c r="K170" s="27"/>
+      <c r="J170" s="28"/>
+      <c r="K170" s="28"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="J171" s="27"/>
-      <c r="K171" s="27"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="28"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="J172" s="27"/>
-      <c r="K172" s="27"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="28"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="J173" s="27"/>
-      <c r="K173" s="27"/>
+      <c r="J173" s="28"/>
+      <c r="K173" s="28"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="J174" s="27"/>
-      <c r="K174" s="27"/>
+      <c r="J174" s="28"/>
+      <c r="K174" s="28"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="J175" s="27"/>
-      <c r="K175" s="27"/>
+      <c r="J175" s="28"/>
+      <c r="K175" s="28"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="J176" s="27"/>
-      <c r="K176" s="27"/>
+      <c r="J176" s="28"/>
+      <c r="K176" s="28"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="J177" s="27"/>
-      <c r="K177" s="27"/>
+      <c r="J177" s="28"/>
+      <c r="K177" s="28"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="J178" s="27"/>
-      <c r="K178" s="27"/>
+      <c r="J178" s="28"/>
+      <c r="K178" s="28"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="J179" s="27"/>
-      <c r="K179" s="27"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="28"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="J180" s="27"/>
-      <c r="K180" s="27"/>
+      <c r="J180" s="28"/>
+      <c r="K180" s="28"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="J181" s="27"/>
-      <c r="K181" s="27"/>
+      <c r="J181" s="28"/>
+      <c r="K181" s="28"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="J182" s="27"/>
-      <c r="K182" s="27"/>
+      <c r="J182" s="28"/>
+      <c r="K182" s="28"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="J183" s="27"/>
-      <c r="K183" s="27"/>
+      <c r="J183" s="28"/>
+      <c r="K183" s="28"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="J184" s="27"/>
-      <c r="K184" s="27"/>
+      <c r="J184" s="28"/>
+      <c r="K184" s="28"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="J185" s="27"/>
-      <c r="K185" s="27"/>
+      <c r="J185" s="28"/>
+      <c r="K185" s="28"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="J186" s="27"/>
-      <c r="K186" s="27"/>
+      <c r="J186" s="28"/>
+      <c r="K186" s="28"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="J187" s="27"/>
-      <c r="K187" s="27"/>
+      <c r="J187" s="28"/>
+      <c r="K187" s="28"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="J188" s="27"/>
-      <c r="K188" s="27"/>
+      <c r="J188" s="28"/>
+      <c r="K188" s="28"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="J189" s="27"/>
-      <c r="K189" s="27"/>
+      <c r="J189" s="28"/>
+      <c r="K189" s="28"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="J190" s="27"/>
-      <c r="K190" s="27"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="28"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="J191" s="27"/>
-      <c r="K191" s="27"/>
+      <c r="J191" s="28"/>
+      <c r="K191" s="28"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="J192" s="27"/>
-      <c r="K192" s="27"/>
+      <c r="J192" s="28"/>
+      <c r="K192" s="28"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="J193" s="27"/>
-      <c r="K193" s="27"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="28"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="J194" s="27"/>
-      <c r="K194" s="27"/>
+      <c r="J194" s="28"/>
+      <c r="K194" s="28"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="J195" s="27"/>
-      <c r="K195" s="27"/>
+      <c r="J195" s="28"/>
+      <c r="K195" s="28"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="J196" s="27"/>
-      <c r="K196" s="27"/>
+      <c r="J196" s="28"/>
+      <c r="K196" s="28"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="J197" s="27"/>
-      <c r="K197" s="27"/>
+      <c r="J197" s="28"/>
+      <c r="K197" s="28"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="J198" s="27"/>
-      <c r="K198" s="27"/>
+      <c r="J198" s="28"/>
+      <c r="K198" s="28"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="J199" s="27"/>
-      <c r="K199" s="27"/>
+      <c r="J199" s="28"/>
+      <c r="K199" s="28"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="J200" s="27"/>
-      <c r="K200" s="27"/>
+      <c r="J200" s="28"/>
+      <c r="K200" s="28"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="J201" s="27"/>
-      <c r="K201" s="27"/>
+      <c r="J201" s="28"/>
+      <c r="K201" s="28"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="J202" s="27"/>
-      <c r="K202" s="27"/>
+      <c r="J202" s="28"/>
+      <c r="K202" s="28"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="J203" s="27"/>
-      <c r="K203" s="27"/>
+      <c r="J203" s="28"/>
+      <c r="K203" s="28"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="J204" s="27"/>
-      <c r="K204" s="27"/>
+      <c r="J204" s="28"/>
+      <c r="K204" s="28"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="J205" s="27"/>
-      <c r="K205" s="27"/>
+      <c r="J205" s="28"/>
+      <c r="K205" s="28"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="J206" s="27"/>
-      <c r="K206" s="27"/>
+      <c r="J206" s="28"/>
+      <c r="K206" s="28"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="J207" s="27"/>
-      <c r="K207" s="27"/>
+      <c r="J207" s="28"/>
+      <c r="K207" s="28"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="J208" s="27"/>
-      <c r="K208" s="27"/>
+      <c r="J208" s="28"/>
+      <c r="K208" s="28"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="J209" s="27"/>
-      <c r="K209" s="27"/>
+      <c r="J209" s="28"/>
+      <c r="K209" s="28"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="J210" s="27"/>
-      <c r="K210" s="27"/>
+      <c r="J210" s="28"/>
+      <c r="K210" s="28"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="J211" s="27"/>
-      <c r="K211" s="27"/>
+      <c r="J211" s="28"/>
+      <c r="K211" s="28"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="J212" s="27"/>
-      <c r="K212" s="27"/>
+      <c r="J212" s="28"/>
+      <c r="K212" s="28"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="J213" s="27"/>
-      <c r="K213" s="27"/>
+      <c r="J213" s="28"/>
+      <c r="K213" s="28"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="J214" s="27"/>
-      <c r="K214" s="27"/>
+      <c r="J214" s="28"/>
+      <c r="K214" s="28"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="J215" s="27"/>
-      <c r="K215" s="27"/>
+      <c r="J215" s="28"/>
+      <c r="K215" s="28"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="J216" s="27"/>
-      <c r="K216" s="27"/>
+      <c r="J216" s="28"/>
+      <c r="K216" s="28"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="J217" s="27"/>
-      <c r="K217" s="27"/>
+      <c r="J217" s="28"/>
+      <c r="K217" s="28"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="J218" s="27"/>
-      <c r="K218" s="27"/>
+      <c r="J218" s="28"/>
+      <c r="K218" s="28"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="J219" s="27"/>
-      <c r="K219" s="27"/>
+      <c r="J219" s="28"/>
+      <c r="K219" s="28"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="J220" s="27"/>
-      <c r="K220" s="27"/>
+      <c r="J220" s="28"/>
+      <c r="K220" s="28"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="J221" s="27"/>
-      <c r="K221" s="27"/>
+      <c r="J221" s="28"/>
+      <c r="K221" s="28"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="J222" s="27"/>
-      <c r="K222" s="27"/>
+      <c r="J222" s="28"/>
+      <c r="K222" s="28"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="J223" s="27"/>
-      <c r="K223" s="27"/>
+      <c r="J223" s="28"/>
+      <c r="K223" s="28"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="J224" s="27"/>
-      <c r="K224" s="27"/>
+      <c r="J224" s="28"/>
+      <c r="K224" s="28"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="J225" s="27"/>
-      <c r="K225" s="27"/>
+      <c r="J225" s="28"/>
+      <c r="K225" s="28"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="J226" s="27"/>
-      <c r="K226" s="27"/>
+      <c r="J226" s="28"/>
+      <c r="K226" s="28"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="J227" s="27"/>
-      <c r="K227" s="27"/>
+      <c r="J227" s="28"/>
+      <c r="K227" s="28"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="J228" s="27"/>
-      <c r="K228" s="27"/>
+      <c r="J228" s="28"/>
+      <c r="K228" s="28"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="J229" s="27"/>
-      <c r="K229" s="27"/>
+      <c r="J229" s="28"/>
+      <c r="K229" s="28"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="J230" s="27"/>
-      <c r="K230" s="27"/>
+      <c r="J230" s="28"/>
+      <c r="K230" s="28"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="J231" s="27"/>
-      <c r="K231" s="27"/>
+      <c r="J231" s="28"/>
+      <c r="K231" s="28"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="J232" s="27"/>
-      <c r="K232" s="27"/>
+      <c r="J232" s="28"/>
+      <c r="K232" s="28"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="J233" s="27"/>
-      <c r="K233" s="27"/>
+      <c r="J233" s="28"/>
+      <c r="K233" s="28"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="J234" s="27"/>
-      <c r="K234" s="27"/>
+      <c r="J234" s="28"/>
+      <c r="K234" s="28"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="J235" s="27"/>
-      <c r="K235" s="27"/>
+      <c r="J235" s="28"/>
+      <c r="K235" s="28"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="J236" s="27"/>
-      <c r="K236" s="27"/>
+      <c r="J236" s="28"/>
+      <c r="K236" s="28"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="J237" s="27"/>
-      <c r="K237" s="27"/>
+      <c r="J237" s="28"/>
+      <c r="K237" s="28"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="J238" s="27"/>
-      <c r="K238" s="27"/>
+      <c r="J238" s="28"/>
+      <c r="K238" s="28"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="J239" s="27"/>
-      <c r="K239" s="27"/>
+      <c r="J239" s="28"/>
+      <c r="K239" s="28"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="J240" s="27"/>
-      <c r="K240" s="27"/>
+      <c r="J240" s="28"/>
+      <c r="K240" s="28"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="J241" s="27"/>
-      <c r="K241" s="27"/>
+      <c r="J241" s="28"/>
+      <c r="K241" s="28"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="J242" s="27"/>
-      <c r="K242" s="27"/>
+      <c r="J242" s="28"/>
+      <c r="K242" s="28"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="J243" s="27"/>
-      <c r="K243" s="27"/>
+      <c r="J243" s="28"/>
+      <c r="K243" s="28"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="J244" s="27"/>
-      <c r="K244" s="27"/>
+      <c r="J244" s="28"/>
+      <c r="K244" s="28"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="J245" s="27"/>
-      <c r="K245" s="27"/>
+      <c r="J245" s="28"/>
+      <c r="K245" s="28"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="J246" s="27"/>
-      <c r="K246" s="27"/>
+      <c r="J246" s="28"/>
+      <c r="K246" s="28"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="J247" s="27"/>
-      <c r="K247" s="27"/>
+      <c r="J247" s="28"/>
+      <c r="K247" s="28"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="J248" s="27"/>
-      <c r="K248" s="27"/>
+      <c r="J248" s="28"/>
+      <c r="K248" s="28"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="J249" s="27"/>
-      <c r="K249" s="27"/>
+      <c r="J249" s="28"/>
+      <c r="K249" s="28"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="J250" s="27"/>
-      <c r="K250" s="27"/>
+      <c r="J250" s="28"/>
+      <c r="K250" s="28"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="J251" s="27"/>
-      <c r="K251" s="27"/>
+      <c r="J251" s="28"/>
+      <c r="K251" s="28"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="J252" s="27"/>
-      <c r="K252" s="27"/>
+      <c r="J252" s="28"/>
+      <c r="K252" s="28"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="J253" s="27"/>
-      <c r="K253" s="27"/>
+      <c r="J253" s="28"/>
+      <c r="K253" s="28"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="J254" s="27"/>
-      <c r="K254" s="27"/>
+      <c r="J254" s="28"/>
+      <c r="K254" s="28"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="J255" s="27"/>
-      <c r="K255" s="27"/>
+      <c r="J255" s="28"/>
+      <c r="K255" s="28"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="J256" s="27"/>
-      <c r="K256" s="27"/>
+      <c r="J256" s="28"/>
+      <c r="K256" s="28"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="J257" s="27"/>
-      <c r="K257" s="27"/>
+      <c r="J257" s="28"/>
+      <c r="K257" s="28"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="J258" s="27"/>
-      <c r="K258" s="27"/>
+      <c r="J258" s="28"/>
+      <c r="K258" s="28"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="J259" s="27"/>
-      <c r="K259" s="27"/>
+      <c r="J259" s="28"/>
+      <c r="K259" s="28"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="J260" s="27"/>
-      <c r="K260" s="27"/>
+      <c r="J260" s="28"/>
+      <c r="K260" s="28"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="J261" s="27"/>
-      <c r="K261" s="27"/>
+      <c r="J261" s="28"/>
+      <c r="K261" s="28"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="J262" s="27"/>
-      <c r="K262" s="27"/>
+      <c r="J262" s="28"/>
+      <c r="K262" s="28"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="J263" s="27"/>
-      <c r="K263" s="27"/>
+      <c r="J263" s="28"/>
+      <c r="K263" s="28"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="J264" s="27"/>
-      <c r="K264" s="27"/>
+      <c r="J264" s="28"/>
+      <c r="K264" s="28"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="J265" s="27"/>
-      <c r="K265" s="27"/>
+      <c r="J265" s="28"/>
+      <c r="K265" s="28"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="J266" s="27"/>
-      <c r="K266" s="27"/>
+      <c r="J266" s="28"/>
+      <c r="K266" s="28"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="J267" s="27"/>
-      <c r="K267" s="27"/>
+      <c r="J267" s="28"/>
+      <c r="K267" s="28"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="J268" s="27"/>
-      <c r="K268" s="27"/>
+      <c r="J268" s="28"/>
+      <c r="K268" s="28"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="J269" s="27"/>
-      <c r="K269" s="27"/>
+      <c r="J269" s="28"/>
+      <c r="K269" s="28"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="J270" s="27"/>
-      <c r="K270" s="27"/>
+      <c r="J270" s="28"/>
+      <c r="K270" s="28"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="J271" s="27"/>
-      <c r="K271" s="27"/>
+      <c r="J271" s="28"/>
+      <c r="K271" s="28"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="J272" s="27"/>
-      <c r="K272" s="27"/>
+      <c r="J272" s="28"/>
+      <c r="K272" s="28"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="J273" s="27"/>
-      <c r="K273" s="27"/>
+      <c r="J273" s="28"/>
+      <c r="K273" s="28"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="J274" s="27"/>
-      <c r="K274" s="27"/>
+      <c r="J274" s="28"/>
+      <c r="K274" s="28"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="J275" s="27"/>
-      <c r="K275" s="27"/>
+      <c r="J275" s="28"/>
+      <c r="K275" s="28"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="J276" s="27"/>
-      <c r="K276" s="27"/>
+      <c r="J276" s="28"/>
+      <c r="K276" s="28"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="J277" s="27"/>
-      <c r="K277" s="27"/>
+      <c r="J277" s="28"/>
+      <c r="K277" s="28"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="J278" s="27"/>
-      <c r="K278" s="27"/>
+      <c r="J278" s="28"/>
+      <c r="K278" s="28"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="J279" s="27"/>
-      <c r="K279" s="27"/>
+      <c r="J279" s="28"/>
+      <c r="K279" s="28"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="J280" s="27"/>
-      <c r="K280" s="27"/>
+      <c r="J280" s="28"/>
+      <c r="K280" s="28"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="J281" s="27"/>
-      <c r="K281" s="27"/>
+      <c r="J281" s="28"/>
+      <c r="K281" s="28"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="J282" s="27"/>
-      <c r="K282" s="27"/>
+      <c r="J282" s="28"/>
+      <c r="K282" s="28"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="J283" s="27"/>
-      <c r="K283" s="27"/>
+      <c r="J283" s="28"/>
+      <c r="K283" s="28"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="J284" s="27"/>
-      <c r="K284" s="27"/>
+      <c r="J284" s="28"/>
+      <c r="K284" s="28"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="J285" s="27"/>
-      <c r="K285" s="27"/>
+      <c r="J285" s="28"/>
+      <c r="K285" s="28"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="J286" s="27"/>
-      <c r="K286" s="27"/>
+      <c r="J286" s="28"/>
+      <c r="K286" s="28"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="J287" s="27"/>
-      <c r="K287" s="27"/>
+      <c r="J287" s="28"/>
+      <c r="K287" s="28"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="J288" s="27"/>
-      <c r="K288" s="27"/>
+      <c r="J288" s="28"/>
+      <c r="K288" s="28"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="J289" s="27"/>
-      <c r="K289" s="27"/>
+      <c r="J289" s="28"/>
+      <c r="K289" s="28"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="J290" s="27"/>
-      <c r="K290" s="27"/>
+      <c r="J290" s="28"/>
+      <c r="K290" s="28"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="J291" s="27"/>
-      <c r="K291" s="27"/>
+      <c r="J291" s="28"/>
+      <c r="K291" s="28"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="J292" s="27"/>
-      <c r="K292" s="27"/>
+      <c r="J292" s="28"/>
+      <c r="K292" s="28"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="J293" s="27"/>
-      <c r="K293" s="27"/>
+      <c r="J293" s="28"/>
+      <c r="K293" s="28"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="J294" s="27"/>
-      <c r="K294" s="27"/>
+      <c r="J294" s="28"/>
+      <c r="K294" s="28"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="J295" s="27"/>
-      <c r="K295" s="27"/>
+      <c r="J295" s="28"/>
+      <c r="K295" s="28"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="J296" s="27"/>
-      <c r="K296" s="27"/>
+      <c r="J296" s="28"/>
+      <c r="K296" s="28"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="J297" s="27"/>
-      <c r="K297" s="27"/>
+      <c r="J297" s="28"/>
+      <c r="K297" s="28"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="J298" s="27"/>
-      <c r="K298" s="27"/>
+      <c r="J298" s="28"/>
+      <c r="K298" s="28"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="J299" s="27"/>
-      <c r="K299" s="27"/>
+      <c r="J299" s="28"/>
+      <c r="K299" s="28"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="J300" s="27"/>
-      <c r="K300" s="27"/>
+      <c r="J300" s="28"/>
+      <c r="K300" s="28"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="J301" s="27"/>
-      <c r="K301" s="27"/>
+      <c r="J301" s="28"/>
+      <c r="K301" s="28"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="J302" s="27"/>
-      <c r="K302" s="27"/>
+      <c r="J302" s="28"/>
+      <c r="K302" s="28"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="J303" s="27"/>
-      <c r="K303" s="27"/>
+      <c r="J303" s="28"/>
+      <c r="K303" s="28"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="J304" s="27"/>
-      <c r="K304" s="27"/>
+      <c r="J304" s="28"/>
+      <c r="K304" s="28"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="J305" s="27"/>
-      <c r="K305" s="27"/>
+      <c r="J305" s="28"/>
+      <c r="K305" s="28"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="J306" s="27"/>
-      <c r="K306" s="27"/>
+      <c r="J306" s="28"/>
+      <c r="K306" s="28"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="J307" s="27"/>
-      <c r="K307" s="27"/>
+      <c r="J307" s="28"/>
+      <c r="K307" s="28"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="J308" s="27"/>
-      <c r="K308" s="27"/>
+      <c r="J308" s="28"/>
+      <c r="K308" s="28"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="J309" s="27"/>
-      <c r="K309" s="27"/>
+      <c r="J309" s="28"/>
+      <c r="K309" s="28"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="J310" s="27"/>
-      <c r="K310" s="27"/>
+      <c r="J310" s="28"/>
+      <c r="K310" s="28"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="J311" s="27"/>
-      <c r="K311" s="27"/>
+      <c r="J311" s="28"/>
+      <c r="K311" s="28"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="J312" s="27"/>
-      <c r="K312" s="27"/>
+      <c r="J312" s="28"/>
+      <c r="K312" s="28"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="J313" s="27"/>
-      <c r="K313" s="27"/>
+      <c r="J313" s="28"/>
+      <c r="K313" s="28"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="J314" s="27"/>
-      <c r="K314" s="27"/>
+      <c r="J314" s="28"/>
+      <c r="K314" s="28"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="J315" s="27"/>
-      <c r="K315" s="27"/>
+      <c r="J315" s="28"/>
+      <c r="K315" s="28"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="J316" s="27"/>
-      <c r="K316" s="27"/>
+      <c r="J316" s="28"/>
+      <c r="K316" s="28"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="J317" s="27"/>
-      <c r="K317" s="27"/>
+      <c r="J317" s="28"/>
+      <c r="K317" s="28"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="J318" s="27"/>
-      <c r="K318" s="27"/>
+      <c r="J318" s="28"/>
+      <c r="K318" s="28"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="J319" s="27"/>
-      <c r="K319" s="27"/>
+      <c r="J319" s="28"/>
+      <c r="K319" s="28"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="J320" s="27"/>
-      <c r="K320" s="27"/>
+      <c r="J320" s="28"/>
+      <c r="K320" s="28"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="J321" s="27"/>
-      <c r="K321" s="27"/>
+      <c r="J321" s="28"/>
+      <c r="K321" s="28"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="J322" s="27"/>
-      <c r="K322" s="27"/>
+      <c r="J322" s="28"/>
+      <c r="K322" s="28"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="J323" s="27"/>
-      <c r="K323" s="27"/>
+      <c r="J323" s="28"/>
+      <c r="K323" s="28"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="J324" s="27"/>
-      <c r="K324" s="27"/>
+      <c r="J324" s="28"/>
+      <c r="K324" s="28"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="J325" s="27"/>
-      <c r="K325" s="27"/>
+      <c r="J325" s="28"/>
+      <c r="K325" s="28"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="J326" s="27"/>
-      <c r="K326" s="27"/>
+      <c r="J326" s="28"/>
+      <c r="K326" s="28"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="J327" s="27"/>
-      <c r="K327" s="27"/>
+      <c r="J327" s="28"/>
+      <c r="K327" s="28"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="J328" s="27"/>
-      <c r="K328" s="27"/>
+      <c r="J328" s="28"/>
+      <c r="K328" s="28"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="J329" s="27"/>
-      <c r="K329" s="27"/>
+      <c r="J329" s="28"/>
+      <c r="K329" s="28"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="J330" s="27"/>
-      <c r="K330" s="27"/>
+      <c r="J330" s="28"/>
+      <c r="K330" s="28"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="J331" s="27"/>
-      <c r="K331" s="27"/>
+      <c r="J331" s="28"/>
+      <c r="K331" s="28"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="J332" s="27"/>
-      <c r="K332" s="27"/>
+      <c r="J332" s="28"/>
+      <c r="K332" s="28"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="J333" s="27"/>
-      <c r="K333" s="27"/>
+      <c r="J333" s="28"/>
+      <c r="K333" s="28"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="J334" s="27"/>
-      <c r="K334" s="27"/>
+      <c r="J334" s="28"/>
+      <c r="K334" s="28"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="J335" s="27"/>
-      <c r="K335" s="27"/>
+      <c r="J335" s="28"/>
+      <c r="K335" s="28"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="J336" s="27"/>
-      <c r="K336" s="27"/>
+      <c r="J336" s="28"/>
+      <c r="K336" s="28"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="J337" s="27"/>
-      <c r="K337" s="27"/>
+      <c r="J337" s="28"/>
+      <c r="K337" s="28"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="J338" s="27"/>
-      <c r="K338" s="27"/>
+      <c r="J338" s="28"/>
+      <c r="K338" s="28"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="J339" s="27"/>
-      <c r="K339" s="27"/>
+      <c r="J339" s="28"/>
+      <c r="K339" s="28"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="J340" s="27"/>
-      <c r="K340" s="27"/>
+      <c r="J340" s="28"/>
+      <c r="K340" s="28"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="J341" s="27"/>
-      <c r="K341" s="27"/>
+      <c r="J341" s="28"/>
+      <c r="K341" s="28"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="J342" s="27"/>
-      <c r="K342" s="27"/>
+      <c r="J342" s="28"/>
+      <c r="K342" s="28"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="J343" s="27"/>
-      <c r="K343" s="27"/>
+      <c r="J343" s="28"/>
+      <c r="K343" s="28"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="J344" s="27"/>
-      <c r="K344" s="27"/>
+      <c r="J344" s="28"/>
+      <c r="K344" s="28"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="J345" s="27"/>
-      <c r="K345" s="27"/>
+      <c r="J345" s="28"/>
+      <c r="K345" s="28"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="J346" s="27"/>
-      <c r="K346" s="27"/>
+      <c r="J346" s="28"/>
+      <c r="K346" s="28"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="J347" s="27"/>
-      <c r="K347" s="27"/>
+      <c r="J347" s="28"/>
+      <c r="K347" s="28"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="J348" s="27"/>
-      <c r="K348" s="27"/>
+      <c r="J348" s="28"/>
+      <c r="K348" s="28"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="J349" s="27"/>
-      <c r="K349" s="27"/>
+      <c r="J349" s="28"/>
+      <c r="K349" s="28"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="J350" s="27"/>
-      <c r="K350" s="27"/>
+      <c r="J350" s="28"/>
+      <c r="K350" s="28"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="J351" s="27"/>
-      <c r="K351" s="27"/>
+      <c r="J351" s="28"/>
+      <c r="K351" s="28"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="J352" s="27"/>
-      <c r="K352" s="27"/>
+      <c r="J352" s="28"/>
+      <c r="K352" s="28"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="J353" s="27"/>
-      <c r="K353" s="27"/>
+      <c r="J353" s="28"/>
+      <c r="K353" s="28"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="J354" s="27"/>
-      <c r="K354" s="27"/>
+      <c r="J354" s="28"/>
+      <c r="K354" s="28"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="J355" s="27"/>
-      <c r="K355" s="27"/>
+      <c r="J355" s="28"/>
+      <c r="K355" s="28"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="J356" s="27"/>
-      <c r="K356" s="27"/>
+      <c r="J356" s="28"/>
+      <c r="K356" s="28"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="J357" s="27"/>
-      <c r="K357" s="27"/>
+      <c r="J357" s="28"/>
+      <c r="K357" s="28"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="J358" s="27"/>
-      <c r="K358" s="27"/>
+      <c r="J358" s="28"/>
+      <c r="K358" s="28"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="J359" s="27"/>
-      <c r="K359" s="27"/>
+      <c r="J359" s="28"/>
+      <c r="K359" s="28"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="J360" s="27"/>
-      <c r="K360" s="27"/>
+      <c r="J360" s="28"/>
+      <c r="K360" s="28"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="J361" s="27"/>
-      <c r="K361" s="27"/>
+      <c r="J361" s="28"/>
+      <c r="K361" s="28"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="J362" s="27"/>
-      <c r="K362" s="27"/>
+      <c r="J362" s="28"/>
+      <c r="K362" s="28"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="J363" s="27"/>
-      <c r="K363" s="27"/>
+      <c r="J363" s="28"/>
+      <c r="K363" s="28"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="J364" s="27"/>
-      <c r="K364" s="27"/>
+      <c r="J364" s="28"/>
+      <c r="K364" s="28"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="J365" s="27"/>
-      <c r="K365" s="27"/>
+      <c r="J365" s="28"/>
+      <c r="K365" s="28"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="J366" s="27"/>
-      <c r="K366" s="27"/>
+      <c r="J366" s="28"/>
+      <c r="K366" s="28"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="J367" s="27"/>
-      <c r="K367" s="27"/>
+      <c r="J367" s="28"/>
+      <c r="K367" s="28"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="J368" s="27"/>
-      <c r="K368" s="27"/>
+      <c r="J368" s="28"/>
+      <c r="K368" s="28"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="J369" s="27"/>
-      <c r="K369" s="27"/>
+      <c r="J369" s="28"/>
+      <c r="K369" s="28"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="J370" s="27"/>
-      <c r="K370" s="27"/>
+      <c r="J370" s="28"/>
+      <c r="K370" s="28"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="J371" s="27"/>
-      <c r="K371" s="27"/>
+      <c r="J371" s="28"/>
+      <c r="K371" s="28"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="J372" s="27"/>
-      <c r="K372" s="27"/>
+      <c r="J372" s="28"/>
+      <c r="K372" s="28"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="J373" s="27"/>
-      <c r="K373" s="27"/>
+      <c r="J373" s="28"/>
+      <c r="K373" s="28"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="J374" s="27"/>
-      <c r="K374" s="27"/>
+      <c r="J374" s="28"/>
+      <c r="K374" s="28"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="J375" s="27"/>
-      <c r="K375" s="27"/>
+      <c r="J375" s="28"/>
+      <c r="K375" s="28"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="J376" s="27"/>
-      <c r="K376" s="27"/>
+      <c r="J376" s="28"/>
+      <c r="K376" s="28"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="J377" s="27"/>
-      <c r="K377" s="27"/>
+      <c r="J377" s="28"/>
+      <c r="K377" s="28"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="J378" s="27"/>
-      <c r="K378" s="27"/>
+      <c r="J378" s="28"/>
+      <c r="K378" s="28"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="J379" s="27"/>
-      <c r="K379" s="27"/>
+      <c r="J379" s="28"/>
+      <c r="K379" s="28"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="J380" s="27"/>
-      <c r="K380" s="27"/>
+      <c r="J380" s="28"/>
+      <c r="K380" s="28"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="J381" s="27"/>
-      <c r="K381" s="27"/>
+      <c r="J381" s="28"/>
+      <c r="K381" s="28"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="J382" s="27"/>
-      <c r="K382" s="27"/>
+      <c r="J382" s="28"/>
+      <c r="K382" s="28"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="J383" s="27"/>
-      <c r="K383" s="27"/>
+      <c r="J383" s="28"/>
+      <c r="K383" s="28"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="J384" s="27"/>
-      <c r="K384" s="27"/>
+      <c r="J384" s="28"/>
+      <c r="K384" s="28"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="J385" s="27"/>
-      <c r="K385" s="27"/>
+      <c r="J385" s="28"/>
+      <c r="K385" s="28"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="J386" s="27"/>
-      <c r="K386" s="27"/>
+      <c r="J386" s="28"/>
+      <c r="K386" s="28"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="J387" s="27"/>
-      <c r="K387" s="27"/>
+      <c r="J387" s="28"/>
+      <c r="K387" s="28"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="J388" s="27"/>
-      <c r="K388" s="27"/>
+      <c r="J388" s="28"/>
+      <c r="K388" s="28"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="J389" s="27"/>
-      <c r="K389" s="27"/>
+      <c r="J389" s="28"/>
+      <c r="K389" s="28"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="J390" s="27"/>
-      <c r="K390" s="27"/>
+      <c r="J390" s="28"/>
+      <c r="K390" s="28"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="J391" s="27"/>
-      <c r="K391" s="27"/>
+      <c r="J391" s="28"/>
+      <c r="K391" s="28"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="J392" s="27"/>
-      <c r="K392" s="27"/>
+      <c r="J392" s="28"/>
+      <c r="K392" s="28"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="J393" s="27"/>
-      <c r="K393" s="27"/>
+      <c r="J393" s="28"/>
+      <c r="K393" s="28"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="J394" s="27"/>
-      <c r="K394" s="27"/>
+      <c r="J394" s="28"/>
+      <c r="K394" s="28"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="J395" s="27"/>
-      <c r="K395" s="27"/>
+      <c r="J395" s="28"/>
+      <c r="K395" s="28"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="J396" s="27"/>
-      <c r="K396" s="27"/>
+      <c r="J396" s="28"/>
+      <c r="K396" s="28"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="J397" s="27"/>
-      <c r="K397" s="27"/>
+      <c r="J397" s="28"/>
+      <c r="K397" s="28"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="J398" s="27"/>
-      <c r="K398" s="27"/>
+      <c r="J398" s="28"/>
+      <c r="K398" s="28"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="J399" s="27"/>
-      <c r="K399" s="27"/>
+      <c r="J399" s="28"/>
+      <c r="K399" s="28"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="J400" s="27"/>
-      <c r="K400" s="27"/>
+      <c r="J400" s="28"/>
+      <c r="K400" s="28"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="J401" s="27"/>
-      <c r="K401" s="27"/>
+      <c r="J401" s="28"/>
+      <c r="K401" s="28"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="J402" s="27"/>
-      <c r="K402" s="27"/>
+      <c r="J402" s="28"/>
+      <c r="K402" s="28"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="J403" s="27"/>
-      <c r="K403" s="27"/>
+      <c r="J403" s="28"/>
+      <c r="K403" s="28"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="J404" s="27"/>
-      <c r="K404" s="27"/>
+      <c r="J404" s="28"/>
+      <c r="K404" s="28"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="J405" s="27"/>
-      <c r="K405" s="27"/>
+      <c r="J405" s="28"/>
+      <c r="K405" s="28"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="J406" s="27"/>
-      <c r="K406" s="27"/>
+      <c r="J406" s="28"/>
+      <c r="K406" s="28"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="J407" s="27"/>
-      <c r="K407" s="27"/>
+      <c r="J407" s="28"/>
+      <c r="K407" s="28"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="J408" s="27"/>
-      <c r="K408" s="27"/>
+      <c r="J408" s="28"/>
+      <c r="K408" s="28"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="J409" s="27"/>
-      <c r="K409" s="27"/>
+      <c r="J409" s="28"/>
+      <c r="K409" s="28"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="J410" s="27"/>
-      <c r="K410" s="27"/>
+      <c r="J410" s="28"/>
+      <c r="K410" s="28"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="J411" s="27"/>
-      <c r="K411" s="27"/>
+      <c r="J411" s="28"/>
+      <c r="K411" s="28"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="J412" s="27"/>
-      <c r="K412" s="27"/>
+      <c r="J412" s="28"/>
+      <c r="K412" s="28"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="J413" s="27"/>
-      <c r="K413" s="27"/>
+      <c r="J413" s="28"/>
+      <c r="K413" s="28"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="J414" s="27"/>
-      <c r="K414" s="27"/>
+      <c r="J414" s="28"/>
+      <c r="K414" s="28"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="J415" s="27"/>
-      <c r="K415" s="27"/>
+      <c r="J415" s="28"/>
+      <c r="K415" s="28"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="J416" s="27"/>
-      <c r="K416" s="27"/>
+      <c r="J416" s="28"/>
+      <c r="K416" s="28"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="J417" s="27"/>
-      <c r="K417" s="27"/>
+      <c r="J417" s="28"/>
+      <c r="K417" s="28"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="J418" s="27"/>
-      <c r="K418" s="27"/>
+      <c r="J418" s="28"/>
+      <c r="K418" s="28"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="J419" s="27"/>
-      <c r="K419" s="27"/>
+      <c r="J419" s="28"/>
+      <c r="K419" s="28"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="J420" s="27"/>
-      <c r="K420" s="27"/>
+      <c r="J420" s="28"/>
+      <c r="K420" s="28"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="J421" s="27"/>
-      <c r="K421" s="27"/>
+      <c r="J421" s="28"/>
+      <c r="K421" s="28"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="J422" s="27"/>
-      <c r="K422" s="27"/>
+      <c r="J422" s="28"/>
+      <c r="K422" s="28"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="J423" s="27"/>
-      <c r="K423" s="27"/>
+      <c r="J423" s="28"/>
+      <c r="K423" s="28"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="J424" s="27"/>
-      <c r="K424" s="27"/>
+      <c r="J424" s="28"/>
+      <c r="K424" s="28"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="J425" s="27"/>
-      <c r="K425" s="27"/>
+      <c r="J425" s="28"/>
+      <c r="K425" s="28"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="J426" s="27"/>
-      <c r="K426" s="27"/>
+      <c r="J426" s="28"/>
+      <c r="K426" s="28"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="J427" s="27"/>
-      <c r="K427" s="27"/>
+      <c r="J427" s="28"/>
+      <c r="K427" s="28"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="J428" s="27"/>
-      <c r="K428" s="27"/>
+      <c r="J428" s="28"/>
+      <c r="K428" s="28"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="J429" s="27"/>
-      <c r="K429" s="27"/>
+      <c r="J429" s="28"/>
+      <c r="K429" s="28"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="J430" s="27"/>
-      <c r="K430" s="27"/>
+      <c r="J430" s="28"/>
+      <c r="K430" s="28"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="J431" s="27"/>
-      <c r="K431" s="27"/>
+      <c r="J431" s="28"/>
+      <c r="K431" s="28"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="J432" s="27"/>
-      <c r="K432" s="27"/>
+      <c r="J432" s="28"/>
+      <c r="K432" s="28"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="J433" s="27"/>
-      <c r="K433" s="27"/>
+      <c r="J433" s="28"/>
+      <c r="K433" s="28"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="J434" s="27"/>
-      <c r="K434" s="27"/>
+      <c r="J434" s="28"/>
+      <c r="K434" s="28"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="J435" s="27"/>
-      <c r="K435" s="27"/>
+      <c r="J435" s="28"/>
+      <c r="K435" s="28"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="J436" s="27"/>
-      <c r="K436" s="27"/>
+      <c r="J436" s="28"/>
+      <c r="K436" s="28"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="J437" s="27"/>
-      <c r="K437" s="27"/>
+      <c r="J437" s="28"/>
+      <c r="K437" s="28"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="J438" s="27"/>
-      <c r="K438" s="27"/>
+      <c r="J438" s="28"/>
+      <c r="K438" s="28"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="J439" s="27"/>
-      <c r="K439" s="27"/>
+      <c r="J439" s="28"/>
+      <c r="K439" s="28"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="J440" s="27"/>
-      <c r="K440" s="27"/>
+      <c r="J440" s="28"/>
+      <c r="K440" s="28"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="J441" s="27"/>
-      <c r="K441" s="27"/>
+      <c r="J441" s="28"/>
+      <c r="K441" s="28"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="J442" s="27"/>
-      <c r="K442" s="27"/>
+      <c r="J442" s="28"/>
+      <c r="K442" s="28"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="J443" s="27"/>
-      <c r="K443" s="27"/>
+      <c r="J443" s="28"/>
+      <c r="K443" s="28"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="J444" s="27"/>
-      <c r="K444" s="27"/>
+      <c r="J444" s="28"/>
+      <c r="K444" s="28"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="J445" s="27"/>
-      <c r="K445" s="27"/>
+      <c r="J445" s="28"/>
+      <c r="K445" s="28"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="J446" s="27"/>
-      <c r="K446" s="27"/>
+      <c r="J446" s="28"/>
+      <c r="K446" s="28"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="J447" s="27"/>
-      <c r="K447" s="27"/>
+      <c r="J447" s="28"/>
+      <c r="K447" s="28"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="J448" s="27"/>
-      <c r="K448" s="27"/>
+      <c r="J448" s="28"/>
+      <c r="K448" s="28"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="J449" s="27"/>
-      <c r="K449" s="27"/>
+      <c r="J449" s="28"/>
+      <c r="K449" s="28"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="J450" s="27"/>
-      <c r="K450" s="27"/>
+      <c r="J450" s="28"/>
+      <c r="K450" s="28"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="J451" s="27"/>
-      <c r="K451" s="27"/>
+      <c r="J451" s="28"/>
+      <c r="K451" s="28"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="J452" s="27"/>
-      <c r="K452" s="27"/>
+      <c r="J452" s="28"/>
+      <c r="K452" s="28"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="J453" s="27"/>
-      <c r="K453" s="27"/>
+      <c r="J453" s="28"/>
+      <c r="K453" s="28"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="J454" s="27"/>
-      <c r="K454" s="27"/>
+      <c r="J454" s="28"/>
+      <c r="K454" s="28"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="J455" s="27"/>
-      <c r="K455" s="27"/>
+      <c r="J455" s="28"/>
+      <c r="K455" s="28"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="J456" s="27"/>
-      <c r="K456" s="27"/>
+      <c r="J456" s="28"/>
+      <c r="K456" s="28"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="J457" s="27"/>
-      <c r="K457" s="27"/>
+      <c r="J457" s="28"/>
+      <c r="K457" s="28"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="J458" s="27"/>
-      <c r="K458" s="27"/>
+      <c r="J458" s="28"/>
+      <c r="K458" s="28"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="J459" s="27"/>
-      <c r="K459" s="27"/>
+      <c r="J459" s="28"/>
+      <c r="K459" s="28"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="J460" s="27"/>
-      <c r="K460" s="27"/>
+      <c r="J460" s="28"/>
+      <c r="K460" s="28"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="J461" s="27"/>
-      <c r="K461" s="27"/>
+      <c r="J461" s="28"/>
+      <c r="K461" s="28"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="J462" s="27"/>
-      <c r="K462" s="27"/>
+      <c r="J462" s="28"/>
+      <c r="K462" s="28"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="J463" s="27"/>
-      <c r="K463" s="27"/>
+      <c r="J463" s="28"/>
+      <c r="K463" s="28"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="J464" s="27"/>
-      <c r="K464" s="27"/>
+      <c r="J464" s="28"/>
+      <c r="K464" s="28"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="J465" s="27"/>
-      <c r="K465" s="27"/>
+      <c r="J465" s="28"/>
+      <c r="K465" s="28"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="J466" s="27"/>
-      <c r="K466" s="27"/>
+      <c r="J466" s="28"/>
+      <c r="K466" s="28"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="J467" s="27"/>
-      <c r="K467" s="27"/>
+      <c r="J467" s="28"/>
+      <c r="K467" s="28"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="J468" s="27"/>
-      <c r="K468" s="27"/>
+      <c r="J468" s="28"/>
+      <c r="K468" s="28"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="J469" s="27"/>
-      <c r="K469" s="27"/>
+      <c r="J469" s="28"/>
+      <c r="K469" s="28"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="J470" s="27"/>
-      <c r="K470" s="27"/>
+      <c r="J470" s="28"/>
+      <c r="K470" s="28"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="J471" s="27"/>
-      <c r="K471" s="27"/>
+      <c r="J471" s="28"/>
+      <c r="K471" s="28"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="J472" s="27"/>
-      <c r="K472" s="27"/>
+      <c r="J472" s="28"/>
+      <c r="K472" s="28"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="J473" s="27"/>
-      <c r="K473" s="27"/>
+      <c r="J473" s="28"/>
+      <c r="K473" s="28"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="J474" s="27"/>
-      <c r="K474" s="27"/>
+      <c r="J474" s="28"/>
+      <c r="K474" s="28"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="J475" s="27"/>
-      <c r="K475" s="27"/>
+      <c r="J475" s="28"/>
+      <c r="K475" s="28"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="J476" s="27"/>
-      <c r="K476" s="27"/>
+      <c r="J476" s="28"/>
+      <c r="K476" s="28"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="J477" s="27"/>
-      <c r="K477" s="27"/>
+      <c r="J477" s="28"/>
+      <c r="K477" s="28"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="J478" s="27"/>
-      <c r="K478" s="27"/>
+      <c r="J478" s="28"/>
+      <c r="K478" s="28"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="J479" s="27"/>
-      <c r="K479" s="27"/>
+      <c r="J479" s="28"/>
+      <c r="K479" s="28"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="J480" s="27"/>
-      <c r="K480" s="27"/>
+      <c r="J480" s="28"/>
+      <c r="K480" s="28"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="J481" s="27"/>
-      <c r="K481" s="27"/>
+      <c r="J481" s="28"/>
+      <c r="K481" s="28"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="J482" s="27"/>
-      <c r="K482" s="27"/>
+      <c r="J482" s="28"/>
+      <c r="K482" s="28"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="J483" s="27"/>
-      <c r="K483" s="27"/>
+      <c r="J483" s="28"/>
+      <c r="K483" s="28"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="J484" s="27"/>
-      <c r="K484" s="27"/>
+      <c r="J484" s="28"/>
+      <c r="K484" s="28"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="J485" s="27"/>
-      <c r="K485" s="27"/>
+      <c r="J485" s="28"/>
+      <c r="K485" s="28"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="J486" s="27"/>
-      <c r="K486" s="27"/>
+      <c r="J486" s="28"/>
+      <c r="K486" s="28"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="J487" s="27"/>
-      <c r="K487" s="27"/>
+      <c r="J487" s="28"/>
+      <c r="K487" s="28"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="J488" s="27"/>
-      <c r="K488" s="27"/>
+      <c r="J488" s="28"/>
+      <c r="K488" s="28"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="J489" s="27"/>
-      <c r="K489" s="27"/>
+      <c r="J489" s="28"/>
+      <c r="K489" s="28"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="J490" s="27"/>
-      <c r="K490" s="27"/>
+      <c r="J490" s="28"/>
+      <c r="K490" s="28"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="J491" s="27"/>
-      <c r="K491" s="27"/>
+      <c r="J491" s="28"/>
+      <c r="K491" s="28"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="J492" s="27"/>
-      <c r="K492" s="27"/>
+      <c r="J492" s="28"/>
+      <c r="K492" s="28"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="J493" s="27"/>
-      <c r="K493" s="27"/>
+      <c r="J493" s="28"/>
+      <c r="K493" s="28"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="J494" s="27"/>
-      <c r="K494" s="27"/>
+      <c r="J494" s="28"/>
+      <c r="K494" s="28"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="J495" s="27"/>
-      <c r="K495" s="27"/>
+      <c r="J495" s="28"/>
+      <c r="K495" s="28"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="J496" s="27"/>
-      <c r="K496" s="27"/>
+      <c r="J496" s="28"/>
+      <c r="K496" s="28"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="J497" s="27"/>
-      <c r="K497" s="27"/>
+      <c r="J497" s="28"/>
+      <c r="K497" s="28"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="J498" s="27"/>
-      <c r="K498" s="27"/>
+      <c r="J498" s="28"/>
+      <c r="K498" s="28"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="J499" s="27"/>
-      <c r="K499" s="27"/>
+      <c r="J499" s="28"/>
+      <c r="K499" s="28"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="J500" s="27"/>
-      <c r="K500" s="27"/>
+      <c r="J500" s="28"/>
+      <c r="K500" s="28"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="J501" s="27"/>
-      <c r="K501" s="27"/>
+      <c r="J501" s="28"/>
+      <c r="K501" s="28"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="J502" s="27"/>
-      <c r="K502" s="27"/>
+      <c r="J502" s="28"/>
+      <c r="K502" s="28"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="J503" s="27"/>
-      <c r="K503" s="27"/>
+      <c r="J503" s="28"/>
+      <c r="K503" s="28"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="J504" s="27"/>
-      <c r="K504" s="27"/>
+      <c r="J504" s="28"/>
+      <c r="K504" s="28"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="J505" s="27"/>
-      <c r="K505" s="27"/>
+      <c r="J505" s="28"/>
+      <c r="K505" s="28"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="J506" s="27"/>
-      <c r="K506" s="27"/>
+      <c r="J506" s="28"/>
+      <c r="K506" s="28"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="J507" s="27"/>
-      <c r="K507" s="27"/>
+      <c r="J507" s="28"/>
+      <c r="K507" s="28"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="J508" s="27"/>
-      <c r="K508" s="27"/>
+      <c r="J508" s="28"/>
+      <c r="K508" s="28"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="J509" s="27"/>
-      <c r="K509" s="27"/>
+      <c r="J509" s="28"/>
+      <c r="K509" s="28"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="J510" s="27"/>
-      <c r="K510" s="27"/>
+      <c r="J510" s="28"/>
+      <c r="K510" s="28"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="J511" s="27"/>
-      <c r="K511" s="27"/>
+      <c r="J511" s="28"/>
+      <c r="K511" s="28"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="J512" s="27"/>
-      <c r="K512" s="27"/>
+      <c r="J512" s="28"/>
+      <c r="K512" s="28"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="J513" s="27"/>
-      <c r="K513" s="27"/>
+      <c r="J513" s="28"/>
+      <c r="K513" s="28"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="J514" s="27"/>
-      <c r="K514" s="27"/>
+      <c r="J514" s="28"/>
+      <c r="K514" s="28"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="J515" s="27"/>
-      <c r="K515" s="27"/>
+      <c r="J515" s="28"/>
+      <c r="K515" s="28"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="J516" s="27"/>
-      <c r="K516" s="27"/>
+      <c r="J516" s="28"/>
+      <c r="K516" s="28"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="J517" s="27"/>
-      <c r="K517" s="27"/>
+      <c r="J517" s="28"/>
+      <c r="K517" s="28"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="J518" s="27"/>
-      <c r="K518" s="27"/>
+      <c r="J518" s="28"/>
+      <c r="K518" s="28"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="J519" s="27"/>
-      <c r="K519" s="27"/>
+      <c r="J519" s="28"/>
+      <c r="K519" s="28"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="J520" s="27"/>
-      <c r="K520" s="27"/>
+      <c r="J520" s="28"/>
+      <c r="K520" s="28"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="J521" s="27"/>
-      <c r="K521" s="27"/>
+      <c r="J521" s="28"/>
+      <c r="K521" s="28"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="J522" s="27"/>
-      <c r="K522" s="27"/>
+      <c r="J522" s="28"/>
+      <c r="K522" s="28"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="J523" s="27"/>
-      <c r="K523" s="27"/>
+      <c r="J523" s="28"/>
+      <c r="K523" s="28"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="J524" s="27"/>
-      <c r="K524" s="27"/>
+      <c r="J524" s="28"/>
+      <c r="K524" s="28"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="J525" s="27"/>
-      <c r="K525" s="27"/>
+      <c r="J525" s="28"/>
+      <c r="K525" s="28"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="J526" s="27"/>
-      <c r="K526" s="27"/>
+      <c r="J526" s="28"/>
+      <c r="K526" s="28"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="J527" s="27"/>
-      <c r="K527" s="27"/>
+      <c r="J527" s="28"/>
+      <c r="K527" s="28"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="J528" s="27"/>
-      <c r="K528" s="27"/>
+      <c r="J528" s="28"/>
+      <c r="K528" s="28"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="J529" s="27"/>
-      <c r="K529" s="27"/>
+      <c r="J529" s="28"/>
+      <c r="K529" s="28"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="J530" s="27"/>
-      <c r="K530" s="27"/>
+      <c r="J530" s="28"/>
+      <c r="K530" s="28"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="J531" s="27"/>
-      <c r="K531" s="27"/>
+      <c r="J531" s="28"/>
+      <c r="K531" s="28"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="J532" s="27"/>
-      <c r="K532" s="27"/>
+      <c r="J532" s="28"/>
+      <c r="K532" s="28"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="J533" s="27"/>
-      <c r="K533" s="27"/>
+      <c r="J533" s="28"/>
+      <c r="K533" s="28"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="J534" s="27"/>
-      <c r="K534" s="27"/>
+      <c r="J534" s="28"/>
+      <c r="K534" s="28"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="J535" s="27"/>
-      <c r="K535" s="27"/>
+      <c r="J535" s="28"/>
+      <c r="K535" s="28"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="J536" s="27"/>
-      <c r="K536" s="27"/>
+      <c r="J536" s="28"/>
+      <c r="K536" s="28"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="J537" s="27"/>
-      <c r="K537" s="27"/>
+      <c r="J537" s="28"/>
+      <c r="K537" s="28"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="J538" s="27"/>
-      <c r="K538" s="27"/>
+      <c r="J538" s="28"/>
+      <c r="K538" s="28"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="J539" s="27"/>
-      <c r="K539" s="27"/>
+      <c r="J539" s="28"/>
+      <c r="K539" s="28"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="J540" s="27"/>
-      <c r="K540" s="27"/>
+      <c r="J540" s="28"/>
+      <c r="K540" s="28"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="J541" s="27"/>
-      <c r="K541" s="27"/>
+      <c r="J541" s="28"/>
+      <c r="K541" s="28"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="J542" s="27"/>
-      <c r="K542" s="27"/>
+      <c r="J542" s="28"/>
+      <c r="K542" s="28"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="J543" s="27"/>
-      <c r="K543" s="27"/>
+      <c r="J543" s="28"/>
+      <c r="K543" s="28"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="J544" s="27"/>
-      <c r="K544" s="27"/>
+      <c r="J544" s="28"/>
+      <c r="K544" s="28"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="J545" s="27"/>
-      <c r="K545" s="27"/>
+      <c r="J545" s="28"/>
+      <c r="K545" s="28"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="J546" s="27"/>
-      <c r="K546" s="27"/>
+      <c r="J546" s="28"/>
+      <c r="K546" s="28"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="J547" s="27"/>
-      <c r="K547" s="27"/>
+      <c r="J547" s="28"/>
+      <c r="K547" s="28"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="J548" s="27"/>
-      <c r="K548" s="27"/>
+      <c r="J548" s="28"/>
+      <c r="K548" s="28"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="J549" s="27"/>
-      <c r="K549" s="27"/>
+      <c r="J549" s="28"/>
+      <c r="K549" s="28"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="J550" s="27"/>
-      <c r="K550" s="27"/>
+      <c r="J550" s="28"/>
+      <c r="K550" s="28"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="J551" s="27"/>
-      <c r="K551" s="27"/>
+      <c r="J551" s="28"/>
+      <c r="K551" s="28"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="J552" s="27"/>
-      <c r="K552" s="27"/>
+      <c r="J552" s="28"/>
+      <c r="K552" s="28"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="J553" s="27"/>
-      <c r="K553" s="27"/>
+      <c r="J553" s="28"/>
+      <c r="K553" s="28"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="J554" s="27"/>
-      <c r="K554" s="27"/>
+      <c r="J554" s="28"/>
+      <c r="K554" s="28"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="J555" s="27"/>
-      <c r="K555" s="27"/>
+      <c r="J555" s="28"/>
+      <c r="K555" s="28"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="J556" s="27"/>
-      <c r="K556" s="27"/>
+      <c r="J556" s="28"/>
+      <c r="K556" s="28"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="J557" s="27"/>
-      <c r="K557" s="27"/>
+      <c r="J557" s="28"/>
+      <c r="K557" s="28"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="J558" s="27"/>
-      <c r="K558" s="27"/>
+      <c r="J558" s="28"/>
+      <c r="K558" s="28"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="J559" s="27"/>
-      <c r="K559" s="27"/>
+      <c r="J559" s="28"/>
+      <c r="K559" s="28"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="J560" s="27"/>
-      <c r="K560" s="27"/>
+      <c r="J560" s="28"/>
+      <c r="K560" s="28"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="J561" s="27"/>
-      <c r="K561" s="27"/>
+      <c r="J561" s="28"/>
+      <c r="K561" s="28"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="J562" s="27"/>
-      <c r="K562" s="27"/>
+      <c r="J562" s="28"/>
+      <c r="K562" s="28"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="J563" s="27"/>
-      <c r="K563" s="27"/>
+      <c r="J563" s="28"/>
+      <c r="K563" s="28"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="J564" s="27"/>
-      <c r="K564" s="27"/>
+      <c r="J564" s="28"/>
+      <c r="K564" s="28"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="J565" s="27"/>
-      <c r="K565" s="27"/>
+      <c r="J565" s="28"/>
+      <c r="K565" s="28"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="J566" s="27"/>
-      <c r="K566" s="27"/>
+      <c r="J566" s="28"/>
+      <c r="K566" s="28"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="J567" s="27"/>
-      <c r="K567" s="27"/>
+      <c r="J567" s="28"/>
+      <c r="K567" s="28"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="J568" s="27"/>
-      <c r="K568" s="27"/>
+      <c r="J568" s="28"/>
+      <c r="K568" s="28"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="J569" s="27"/>
-      <c r="K569" s="27"/>
+      <c r="J569" s="28"/>
+      <c r="K569" s="28"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="J570" s="27"/>
-      <c r="K570" s="27"/>
+      <c r="J570" s="28"/>
+      <c r="K570" s="28"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="J571" s="27"/>
-      <c r="K571" s="27"/>
+      <c r="J571" s="28"/>
+      <c r="K571" s="28"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="J572" s="27"/>
-      <c r="K572" s="27"/>
+      <c r="J572" s="28"/>
+      <c r="K572" s="28"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="J573" s="27"/>
-      <c r="K573" s="27"/>
+      <c r="J573" s="28"/>
+      <c r="K573" s="28"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="J574" s="27"/>
-      <c r="K574" s="27"/>
+      <c r="J574" s="28"/>
+      <c r="K574" s="28"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="J575" s="27"/>
-      <c r="K575" s="27"/>
+      <c r="J575" s="28"/>
+      <c r="K575" s="28"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="J576" s="27"/>
-      <c r="K576" s="27"/>
+      <c r="J576" s="28"/>
+      <c r="K576" s="28"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="J577" s="27"/>
-      <c r="K577" s="27"/>
+      <c r="J577" s="28"/>
+      <c r="K577" s="28"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="J578" s="27"/>
-      <c r="K578" s="27"/>
+      <c r="J578" s="28"/>
+      <c r="K578" s="28"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="J579" s="27"/>
-      <c r="K579" s="27"/>
+      <c r="J579" s="28"/>
+      <c r="K579" s="28"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="J580" s="27"/>
-      <c r="K580" s="27"/>
+      <c r="J580" s="28"/>
+      <c r="K580" s="28"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="J581" s="27"/>
-      <c r="K581" s="27"/>
+      <c r="J581" s="28"/>
+      <c r="K581" s="28"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="J582" s="27"/>
-      <c r="K582" s="27"/>
+      <c r="J582" s="28"/>
+      <c r="K582" s="28"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="J583" s="27"/>
-      <c r="K583" s="27"/>
+      <c r="J583" s="28"/>
+      <c r="K583" s="28"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="J584" s="27"/>
-      <c r="K584" s="27"/>
+      <c r="J584" s="28"/>
+      <c r="K584" s="28"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="J585" s="27"/>
-      <c r="K585" s="27"/>
+      <c r="J585" s="28"/>
+      <c r="K585" s="28"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="J586" s="27"/>
-      <c r="K586" s="27"/>
+      <c r="J586" s="28"/>
+      <c r="K586" s="28"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="J587" s="27"/>
-      <c r="K587" s="27"/>
+      <c r="J587" s="28"/>
+      <c r="K587" s="28"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="J588" s="27"/>
-      <c r="K588" s="27"/>
+      <c r="J588" s="28"/>
+      <c r="K588" s="28"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="J589" s="27"/>
-      <c r="K589" s="27"/>
+      <c r="J589" s="28"/>
+      <c r="K589" s="28"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="J590" s="27"/>
-      <c r="K590" s="27"/>
+      <c r="J590" s="28"/>
+      <c r="K590" s="28"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="J591" s="27"/>
-      <c r="K591" s="27"/>
+      <c r="J591" s="28"/>
+      <c r="K591" s="28"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="J592" s="27"/>
-      <c r="K592" s="27"/>
+      <c r="J592" s="28"/>
+      <c r="K592" s="28"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="J593" s="27"/>
-      <c r="K593" s="27"/>
+      <c r="J593" s="28"/>
+      <c r="K593" s="28"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="J594" s="27"/>
-      <c r="K594" s="27"/>
+      <c r="J594" s="28"/>
+      <c r="K594" s="28"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="J595" s="27"/>
-      <c r="K595" s="27"/>
+      <c r="J595" s="28"/>
+      <c r="K595" s="28"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="J596" s="27"/>
-      <c r="K596" s="27"/>
+      <c r="J596" s="28"/>
+      <c r="K596" s="28"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="J597" s="27"/>
-      <c r="K597" s="27"/>
+      <c r="J597" s="28"/>
+      <c r="K597" s="28"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="J598" s="27"/>
-      <c r="K598" s="27"/>
+      <c r="J598" s="28"/>
+      <c r="K598" s="28"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="J599" s="27"/>
-      <c r="K599" s="27"/>
+      <c r="J599" s="28"/>
+      <c r="K599" s="28"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="J600" s="27"/>
-      <c r="K600" s="27"/>
+      <c r="J600" s="28"/>
+      <c r="K600" s="28"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="J601" s="27"/>
-      <c r="K601" s="27"/>
+      <c r="J601" s="28"/>
+      <c r="K601" s="28"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="J602" s="27"/>
-      <c r="K602" s="27"/>
+      <c r="J602" s="28"/>
+      <c r="K602" s="28"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="J603" s="27"/>
-      <c r="K603" s="27"/>
+      <c r="J603" s="28"/>
+      <c r="K603" s="28"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="J604" s="27"/>
-      <c r="K604" s="27"/>
+      <c r="J604" s="28"/>
+      <c r="K604" s="28"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="J605" s="27"/>
-      <c r="K605" s="27"/>
+      <c r="J605" s="28"/>
+      <c r="K605" s="28"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="J606" s="27"/>
-      <c r="K606" s="27"/>
+      <c r="J606" s="28"/>
+      <c r="K606" s="28"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="J607" s="27"/>
-      <c r="K607" s="27"/>
+      <c r="J607" s="28"/>
+      <c r="K607" s="28"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="J608" s="27"/>
-      <c r="K608" s="27"/>
+      <c r="J608" s="28"/>
+      <c r="K608" s="28"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="J609" s="27"/>
-      <c r="K609" s="27"/>
+      <c r="J609" s="28"/>
+      <c r="K609" s="28"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="J610" s="27"/>
-      <c r="K610" s="27"/>
+      <c r="J610" s="28"/>
+      <c r="K610" s="28"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="J611" s="27"/>
-      <c r="K611" s="27"/>
+      <c r="J611" s="28"/>
+      <c r="K611" s="28"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="J612" s="27"/>
-      <c r="K612" s="27"/>
+      <c r="J612" s="28"/>
+      <c r="K612" s="28"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="J613" s="27"/>
-      <c r="K613" s="27"/>
+      <c r="J613" s="28"/>
+      <c r="K613" s="28"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="J614" s="27"/>
-      <c r="K614" s="27"/>
+      <c r="J614" s="28"/>
+      <c r="K614" s="28"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="J615" s="27"/>
-      <c r="K615" s="27"/>
+      <c r="J615" s="28"/>
+      <c r="K615" s="28"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="J616" s="27"/>
-      <c r="K616" s="27"/>
+      <c r="J616" s="28"/>
+      <c r="K616" s="28"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="J617" s="27"/>
-      <c r="K617" s="27"/>
+      <c r="J617" s="28"/>
+      <c r="K617" s="28"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="J618" s="27"/>
-      <c r="K618" s="27"/>
+      <c r="J618" s="28"/>
+      <c r="K618" s="28"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="J619" s="27"/>
-      <c r="K619" s="27"/>
+      <c r="J619" s="28"/>
+      <c r="K619" s="28"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="J620" s="27"/>
-      <c r="K620" s="27"/>
+      <c r="J620" s="28"/>
+      <c r="K620" s="28"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="J621" s="27"/>
-      <c r="K621" s="27"/>
+      <c r="J621" s="28"/>
+      <c r="K621" s="28"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="J622" s="27"/>
-      <c r="K622" s="27"/>
+      <c r="J622" s="28"/>
+      <c r="K622" s="28"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="J623" s="27"/>
-      <c r="K623" s="27"/>
+      <c r="J623" s="28"/>
+      <c r="K623" s="28"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="J624" s="27"/>
-      <c r="K624" s="27"/>
+      <c r="J624" s="28"/>
+      <c r="K624" s="28"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="J625" s="27"/>
-      <c r="K625" s="27"/>
+      <c r="J625" s="28"/>
+      <c r="K625" s="28"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="J626" s="27"/>
-      <c r="K626" s="27"/>
+      <c r="J626" s="28"/>
+      <c r="K626" s="28"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="J627" s="27"/>
-      <c r="K627" s="27"/>
+      <c r="J627" s="28"/>
+      <c r="K627" s="28"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="J628" s="27"/>
-      <c r="K628" s="27"/>
+      <c r="J628" s="28"/>
+      <c r="K628" s="28"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="J629" s="27"/>
-      <c r="K629" s="27"/>
+      <c r="J629" s="28"/>
+      <c r="K629" s="28"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="J630" s="27"/>
-      <c r="K630" s="27"/>
+      <c r="J630" s="28"/>
+      <c r="K630" s="28"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="J631" s="27"/>
-      <c r="K631" s="27"/>
+      <c r="J631" s="28"/>
+      <c r="K631" s="28"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="J632" s="27"/>
-      <c r="K632" s="27"/>
+      <c r="J632" s="28"/>
+      <c r="K632" s="28"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="J633" s="27"/>
-      <c r="K633" s="27"/>
+      <c r="J633" s="28"/>
+      <c r="K633" s="28"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="J634" s="27"/>
-      <c r="K634" s="27"/>
+      <c r="J634" s="28"/>
+      <c r="K634" s="28"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="J635" s="27"/>
-      <c r="K635" s="27"/>
+      <c r="J635" s="28"/>
+      <c r="K635" s="28"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="J636" s="27"/>
-      <c r="K636" s="27"/>
+      <c r="J636" s="28"/>
+      <c r="K636" s="28"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="J637" s="27"/>
-      <c r="K637" s="27"/>
+      <c r="J637" s="28"/>
+      <c r="K637" s="28"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="J638" s="27"/>
-      <c r="K638" s="27"/>
+      <c r="J638" s="28"/>
+      <c r="K638" s="28"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="J639" s="27"/>
-      <c r="K639" s="27"/>
+      <c r="J639" s="28"/>
+      <c r="K639" s="28"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="J640" s="27"/>
-      <c r="K640" s="27"/>
+      <c r="J640" s="28"/>
+      <c r="K640" s="28"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="J641" s="27"/>
-      <c r="K641" s="27"/>
+      <c r="J641" s="28"/>
+      <c r="K641" s="28"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="J642" s="27"/>
-      <c r="K642" s="27"/>
+      <c r="J642" s="28"/>
+      <c r="K642" s="28"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="J643" s="27"/>
-      <c r="K643" s="27"/>
+      <c r="J643" s="28"/>
+      <c r="K643" s="28"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="J644" s="27"/>
-      <c r="K644" s="27"/>
+      <c r="J644" s="28"/>
+      <c r="K644" s="28"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="J645" s="27"/>
-      <c r="K645" s="27"/>
+      <c r="J645" s="28"/>
+      <c r="K645" s="28"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="J646" s="27"/>
-      <c r="K646" s="27"/>
+      <c r="J646" s="28"/>
+      <c r="K646" s="28"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="J647" s="27"/>
-      <c r="K647" s="27"/>
+      <c r="J647" s="28"/>
+      <c r="K647" s="28"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="J648" s="27"/>
-      <c r="K648" s="27"/>
+      <c r="J648" s="28"/>
+      <c r="K648" s="28"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="J649" s="27"/>
-      <c r="K649" s="27"/>
+      <c r="J649" s="28"/>
+      <c r="K649" s="28"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="J650" s="27"/>
-      <c r="K650" s="27"/>
+      <c r="J650" s="28"/>
+      <c r="K650" s="28"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="J651" s="27"/>
-      <c r="K651" s="27"/>
+      <c r="J651" s="28"/>
+      <c r="K651" s="28"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="J652" s="27"/>
-      <c r="K652" s="27"/>
+      <c r="J652" s="28"/>
+      <c r="K652" s="28"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="J653" s="27"/>
-      <c r="K653" s="27"/>
+      <c r="J653" s="28"/>
+      <c r="K653" s="28"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="J654" s="27"/>
-      <c r="K654" s="27"/>
+      <c r="J654" s="28"/>
+      <c r="K654" s="28"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="J655" s="27"/>
-      <c r="K655" s="27"/>
+      <c r="J655" s="28"/>
+      <c r="K655" s="28"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="J656" s="27"/>
-      <c r="K656" s="27"/>
+      <c r="J656" s="28"/>
+      <c r="K656" s="28"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="J657" s="27"/>
-      <c r="K657" s="27"/>
+      <c r="J657" s="28"/>
+      <c r="K657" s="28"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="J658" s="27"/>
-      <c r="K658" s="27"/>
+      <c r="J658" s="28"/>
+      <c r="K658" s="28"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="J659" s="27"/>
-      <c r="K659" s="27"/>
+      <c r="J659" s="28"/>
+      <c r="K659" s="28"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="J660" s="27"/>
-      <c r="K660" s="27"/>
+      <c r="J660" s="28"/>
+      <c r="K660" s="28"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="J661" s="27"/>
-      <c r="K661" s="27"/>
+      <c r="J661" s="28"/>
+      <c r="K661" s="28"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="J662" s="27"/>
-      <c r="K662" s="27"/>
+      <c r="J662" s="28"/>
+      <c r="K662" s="28"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="J663" s="27"/>
-      <c r="K663" s="27"/>
+      <c r="J663" s="28"/>
+      <c r="K663" s="28"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="J664" s="27"/>
-      <c r="K664" s="27"/>
+      <c r="J664" s="28"/>
+      <c r="K664" s="28"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="J665" s="27"/>
-      <c r="K665" s="27"/>
+      <c r="J665" s="28"/>
+      <c r="K665" s="28"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="J666" s="27"/>
-      <c r="K666" s="27"/>
+      <c r="J666" s="28"/>
+      <c r="K666" s="28"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="J667" s="27"/>
-      <c r="K667" s="27"/>
+      <c r="J667" s="28"/>
+      <c r="K667" s="28"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="J668" s="27"/>
-      <c r="K668" s="27"/>
+      <c r="J668" s="28"/>
+      <c r="K668" s="28"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="J669" s="27"/>
-      <c r="K669" s="27"/>
+      <c r="J669" s="28"/>
+      <c r="K669" s="28"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="J670" s="27"/>
-      <c r="K670" s="27"/>
+      <c r="J670" s="28"/>
+      <c r="K670" s="28"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="J671" s="27"/>
-      <c r="K671" s="27"/>
+      <c r="J671" s="28"/>
+      <c r="K671" s="28"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="J672" s="27"/>
-      <c r="K672" s="27"/>
+      <c r="J672" s="28"/>
+      <c r="K672" s="28"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="J673" s="27"/>
-      <c r="K673" s="27"/>
+      <c r="J673" s="28"/>
+      <c r="K673" s="28"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="J674" s="27"/>
-      <c r="K674" s="27"/>
+      <c r="J674" s="28"/>
+      <c r="K674" s="28"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="J675" s="27"/>
-      <c r="K675" s="27"/>
+      <c r="J675" s="28"/>
+      <c r="K675" s="28"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="J676" s="27"/>
-      <c r="K676" s="27"/>
+      <c r="J676" s="28"/>
+      <c r="K676" s="28"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="J677" s="27"/>
-      <c r="K677" s="27"/>
+      <c r="J677" s="28"/>
+      <c r="K677" s="28"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="J678" s="27"/>
-      <c r="K678" s="27"/>
+      <c r="J678" s="28"/>
+      <c r="K678" s="28"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="J679" s="27"/>
-      <c r="K679" s="27"/>
+      <c r="J679" s="28"/>
+      <c r="K679" s="28"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="J680" s="27"/>
-      <c r="K680" s="27"/>
+      <c r="J680" s="28"/>
+      <c r="K680" s="28"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="J681" s="27"/>
-      <c r="K681" s="27"/>
+      <c r="J681" s="28"/>
+      <c r="K681" s="28"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="J682" s="27"/>
-      <c r="K682" s="27"/>
+      <c r="J682" s="28"/>
+      <c r="K682" s="28"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="J683" s="27"/>
-      <c r="K683" s="27"/>
+      <c r="J683" s="28"/>
+      <c r="K683" s="28"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="J684" s="27"/>
-      <c r="K684" s="27"/>
+      <c r="J684" s="28"/>
+      <c r="K684" s="28"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="J685" s="27"/>
-      <c r="K685" s="27"/>
+      <c r="J685" s="28"/>
+      <c r="K685" s="28"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="J686" s="27"/>
-      <c r="K686" s="27"/>
+      <c r="J686" s="28"/>
+      <c r="K686" s="28"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="J687" s="27"/>
-      <c r="K687" s="27"/>
+      <c r="J687" s="28"/>
+      <c r="K687" s="28"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="J688" s="27"/>
-      <c r="K688" s="27"/>
+      <c r="J688" s="28"/>
+      <c r="K688" s="28"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="J689" s="27"/>
-      <c r="K689" s="27"/>
+      <c r="J689" s="28"/>
+      <c r="K689" s="28"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="J690" s="27"/>
-      <c r="K690" s="27"/>
+      <c r="J690" s="28"/>
+      <c r="K690" s="28"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="J691" s="27"/>
-      <c r="K691" s="27"/>
+      <c r="J691" s="28"/>
+      <c r="K691" s="28"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="J692" s="27"/>
-      <c r="K692" s="27"/>
+      <c r="J692" s="28"/>
+      <c r="K692" s="28"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="J693" s="27"/>
-      <c r="K693" s="27"/>
+      <c r="J693" s="28"/>
+      <c r="K693" s="28"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="J694" s="27"/>
-      <c r="K694" s="27"/>
+      <c r="J694" s="28"/>
+      <c r="K694" s="28"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="J695" s="27"/>
-      <c r="K695" s="27"/>
+      <c r="J695" s="28"/>
+      <c r="K695" s="28"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="J696" s="27"/>
-      <c r="K696" s="27"/>
+      <c r="J696" s="28"/>
+      <c r="K696" s="28"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="J697" s="27"/>
-      <c r="K697" s="27"/>
+      <c r="J697" s="28"/>
+      <c r="K697" s="28"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="J698" s="27"/>
-      <c r="K698" s="27"/>
+      <c r="J698" s="28"/>
+      <c r="K698" s="28"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="J699" s="27"/>
-      <c r="K699" s="27"/>
+      <c r="J699" s="28"/>
+      <c r="K699" s="28"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="J700" s="27"/>
-      <c r="K700" s="27"/>
+      <c r="J700" s="28"/>
+      <c r="K700" s="28"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="J701" s="27"/>
-      <c r="K701" s="27"/>
+      <c r="J701" s="28"/>
+      <c r="K701" s="28"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="J702" s="27"/>
-      <c r="K702" s="27"/>
+      <c r="J702" s="28"/>
+      <c r="K702" s="28"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="J703" s="27"/>
-      <c r="K703" s="27"/>
+      <c r="J703" s="28"/>
+      <c r="K703" s="28"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="J704" s="27"/>
-      <c r="K704" s="27"/>
+      <c r="J704" s="28"/>
+      <c r="K704" s="28"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="J705" s="27"/>
-      <c r="K705" s="27"/>
+      <c r="J705" s="28"/>
+      <c r="K705" s="28"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="J706" s="27"/>
-      <c r="K706" s="27"/>
+      <c r="J706" s="28"/>
+      <c r="K706" s="28"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="J707" s="27"/>
-      <c r="K707" s="27"/>
+      <c r="J707" s="28"/>
+      <c r="K707" s="28"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="J708" s="27"/>
-      <c r="K708" s="27"/>
+      <c r="J708" s="28"/>
+      <c r="K708" s="28"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="J709" s="27"/>
-      <c r="K709" s="27"/>
+      <c r="J709" s="28"/>
+      <c r="K709" s="28"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="J710" s="27"/>
-      <c r="K710" s="27"/>
+      <c r="J710" s="28"/>
+      <c r="K710" s="28"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="J711" s="27"/>
-      <c r="K711" s="27"/>
+      <c r="J711" s="28"/>
+      <c r="K711" s="28"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="J712" s="27"/>
-      <c r="K712" s="27"/>
+      <c r="J712" s="28"/>
+      <c r="K712" s="28"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="J713" s="27"/>
-      <c r="K713" s="27"/>
+      <c r="J713" s="28"/>
+      <c r="K713" s="28"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="J714" s="27"/>
-      <c r="K714" s="27"/>
+      <c r="J714" s="28"/>
+      <c r="K714" s="28"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="J715" s="27"/>
-      <c r="K715" s="27"/>
+      <c r="J715" s="28"/>
+      <c r="K715" s="28"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="J716" s="27"/>
-      <c r="K716" s="27"/>
+      <c r="J716" s="28"/>
+      <c r="K716" s="28"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="J717" s="27"/>
-      <c r="K717" s="27"/>
+      <c r="J717" s="28"/>
+      <c r="K717" s="28"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="J718" s="27"/>
-      <c r="K718" s="27"/>
+      <c r="J718" s="28"/>
+      <c r="K718" s="28"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="J719" s="27"/>
-      <c r="K719" s="27"/>
+      <c r="J719" s="28"/>
+      <c r="K719" s="28"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="J720" s="27"/>
-      <c r="K720" s="27"/>
+      <c r="J720" s="28"/>
+      <c r="K720" s="28"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="J721" s="27"/>
-      <c r="K721" s="27"/>
+      <c r="J721" s="28"/>
+      <c r="K721" s="28"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="J722" s="27"/>
-      <c r="K722" s="27"/>
+      <c r="J722" s="28"/>
+      <c r="K722" s="28"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="J723" s="27"/>
-      <c r="K723" s="27"/>
+      <c r="J723" s="28"/>
+      <c r="K723" s="28"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="J724" s="27"/>
-      <c r="K724" s="27"/>
+      <c r="J724" s="28"/>
+      <c r="K724" s="28"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="J725" s="27"/>
-      <c r="K725" s="27"/>
+      <c r="J725" s="28"/>
+      <c r="K725" s="28"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="J726" s="27"/>
-      <c r="K726" s="27"/>
+      <c r="J726" s="28"/>
+      <c r="K726" s="28"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="J727" s="27"/>
-      <c r="K727" s="27"/>
+      <c r="J727" s="28"/>
+      <c r="K727" s="28"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="J728" s="27"/>
-      <c r="K728" s="27"/>
+      <c r="J728" s="28"/>
+      <c r="K728" s="28"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="J729" s="27"/>
-      <c r="K729" s="27"/>
+      <c r="J729" s="28"/>
+      <c r="K729" s="28"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="J730" s="27"/>
-      <c r="K730" s="27"/>
+      <c r="J730" s="28"/>
+      <c r="K730" s="28"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="J731" s="27"/>
-      <c r="K731" s="27"/>
+      <c r="J731" s="28"/>
+      <c r="K731" s="28"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="J732" s="27"/>
-      <c r="K732" s="27"/>
+      <c r="J732" s="28"/>
+      <c r="K732" s="28"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="J733" s="27"/>
-      <c r="K733" s="27"/>
+      <c r="J733" s="28"/>
+      <c r="K733" s="28"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="J734" s="27"/>
-      <c r="K734" s="27"/>
+      <c r="J734" s="28"/>
+      <c r="K734" s="28"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="J735" s="27"/>
-      <c r="K735" s="27"/>
+      <c r="J735" s="28"/>
+      <c r="K735" s="28"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="J736" s="27"/>
-      <c r="K736" s="27"/>
+      <c r="J736" s="28"/>
+      <c r="K736" s="28"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="J737" s="27"/>
-      <c r="K737" s="27"/>
+      <c r="J737" s="28"/>
+      <c r="K737" s="28"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="J738" s="27"/>
-      <c r="K738" s="27"/>
+      <c r="J738" s="28"/>
+      <c r="K738" s="28"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="J739" s="27"/>
-      <c r="K739" s="27"/>
+      <c r="J739" s="28"/>
+      <c r="K739" s="28"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="J740" s="27"/>
-      <c r="K740" s="27"/>
+      <c r="J740" s="28"/>
+      <c r="K740" s="28"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="J741" s="27"/>
-      <c r="K741" s="27"/>
+      <c r="J741" s="28"/>
+      <c r="K741" s="28"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="J742" s="27"/>
-      <c r="K742" s="27"/>
+      <c r="J742" s="28"/>
+      <c r="K742" s="28"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="J743" s="27"/>
-      <c r="K743" s="27"/>
+      <c r="J743" s="28"/>
+      <c r="K743" s="28"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="J744" s="27"/>
-      <c r="K744" s="27"/>
+      <c r="J744" s="28"/>
+      <c r="K744" s="28"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="J745" s="27"/>
-      <c r="K745" s="27"/>
+      <c r="J745" s="28"/>
+      <c r="K745" s="28"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="J746" s="27"/>
-      <c r="K746" s="27"/>
+      <c r="J746" s="28"/>
+      <c r="K746" s="28"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="J747" s="27"/>
-      <c r="K747" s="27"/>
+      <c r="J747" s="28"/>
+      <c r="K747" s="28"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="J748" s="27"/>
-      <c r="K748" s="27"/>
+      <c r="J748" s="28"/>
+      <c r="K748" s="28"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="J749" s="27"/>
-      <c r="K749" s="27"/>
+      <c r="J749" s="28"/>
+      <c r="K749" s="28"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="J750" s="27"/>
-      <c r="K750" s="27"/>
+      <c r="J750" s="28"/>
+      <c r="K750" s="28"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="J751" s="27"/>
-      <c r="K751" s="27"/>
+      <c r="J751" s="28"/>
+      <c r="K751" s="28"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="J752" s="27"/>
-      <c r="K752" s="27"/>
+      <c r="J752" s="28"/>
+      <c r="K752" s="28"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="J753" s="27"/>
-      <c r="K753" s="27"/>
+      <c r="J753" s="28"/>
+      <c r="K753" s="28"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="J754" s="27"/>
-      <c r="K754" s="27"/>
+      <c r="J754" s="28"/>
+      <c r="K754" s="28"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="J755" s="27"/>
-      <c r="K755" s="27"/>
+      <c r="J755" s="28"/>
+      <c r="K755" s="28"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="J756" s="27"/>
-      <c r="K756" s="27"/>
+      <c r="J756" s="28"/>
+      <c r="K756" s="28"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="J757" s="27"/>
-      <c r="K757" s="27"/>
+      <c r="J757" s="28"/>
+      <c r="K757" s="28"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="J758" s="27"/>
-      <c r="K758" s="27"/>
+      <c r="J758" s="28"/>
+      <c r="K758" s="28"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="J759" s="27"/>
-      <c r="K759" s="27"/>
+      <c r="J759" s="28"/>
+      <c r="K759" s="28"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="J760" s="27"/>
-      <c r="K760" s="27"/>
+      <c r="J760" s="28"/>
+      <c r="K760" s="28"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="J761" s="27"/>
-      <c r="K761" s="27"/>
+      <c r="J761" s="28"/>
+      <c r="K761" s="28"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="J762" s="27"/>
-      <c r="K762" s="27"/>
+      <c r="J762" s="28"/>
+      <c r="K762" s="28"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="J763" s="27"/>
-      <c r="K763" s="27"/>
+      <c r="J763" s="28"/>
+      <c r="K763" s="28"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="J764" s="27"/>
-      <c r="K764" s="27"/>
+      <c r="J764" s="28"/>
+      <c r="K764" s="28"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="J765" s="27"/>
-      <c r="K765" s="27"/>
+      <c r="J765" s="28"/>
+      <c r="K765" s="28"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="J766" s="27"/>
-      <c r="K766" s="27"/>
+      <c r="J766" s="28"/>
+      <c r="K766" s="28"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="J767" s="27"/>
-      <c r="K767" s="27"/>
+      <c r="J767" s="28"/>
+      <c r="K767" s="28"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="J768" s="27"/>
-      <c r="K768" s="27"/>
+      <c r="J768" s="28"/>
+      <c r="K768" s="28"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="J769" s="27"/>
-      <c r="K769" s="27"/>
+      <c r="J769" s="28"/>
+      <c r="K769" s="28"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="J770" s="27"/>
-      <c r="K770" s="27"/>
+      <c r="J770" s="28"/>
+      <c r="K770" s="28"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="J771" s="27"/>
-      <c r="K771" s="27"/>
+      <c r="J771" s="28"/>
+      <c r="K771" s="28"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="J772" s="27"/>
-      <c r="K772" s="27"/>
+      <c r="J772" s="28"/>
+      <c r="K772" s="28"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="J773" s="27"/>
-      <c r="K773" s="27"/>
+      <c r="J773" s="28"/>
+      <c r="K773" s="28"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="J774" s="27"/>
-      <c r="K774" s="27"/>
+      <c r="J774" s="28"/>
+      <c r="K774" s="28"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="J775" s="27"/>
-      <c r="K775" s="27"/>
+      <c r="J775" s="28"/>
+      <c r="K775" s="28"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="J776" s="27"/>
-      <c r="K776" s="27"/>
+      <c r="J776" s="28"/>
+      <c r="K776" s="28"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="J777" s="27"/>
-      <c r="K777" s="27"/>
+      <c r="J777" s="28"/>
+      <c r="K777" s="28"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="J778" s="27"/>
-      <c r="K778" s="27"/>
+      <c r="J778" s="28"/>
+      <c r="K778" s="28"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="J779" s="27"/>
-      <c r="K779" s="27"/>
+      <c r="J779" s="28"/>
+      <c r="K779" s="28"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="J780" s="27"/>
-      <c r="K780" s="27"/>
+      <c r="J780" s="28"/>
+      <c r="K780" s="28"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="J781" s="27"/>
-      <c r="K781" s="27"/>
+      <c r="J781" s="28"/>
+      <c r="K781" s="28"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="J782" s="27"/>
-      <c r="K782" s="27"/>
+      <c r="J782" s="28"/>
+      <c r="K782" s="28"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="J783" s="27"/>
-      <c r="K783" s="27"/>
+      <c r="J783" s="28"/>
+      <c r="K783" s="28"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="J784" s="27"/>
-      <c r="K784" s="27"/>
+      <c r="J784" s="28"/>
+      <c r="K784" s="28"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="J785" s="27"/>
-      <c r="K785" s="27"/>
+      <c r="J785" s="28"/>
+      <c r="K785" s="28"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="J786" s="27"/>
-      <c r="K786" s="27"/>
+      <c r="J786" s="28"/>
+      <c r="K786" s="28"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="J787" s="27"/>
-      <c r="K787" s="27"/>
+      <c r="J787" s="28"/>
+      <c r="K787" s="28"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="J788" s="27"/>
-      <c r="K788" s="27"/>
+      <c r="J788" s="28"/>
+      <c r="K788" s="28"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="J789" s="27"/>
-      <c r="K789" s="27"/>
+      <c r="J789" s="28"/>
+      <c r="K789" s="28"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="J790" s="27"/>
-      <c r="K790" s="27"/>
+      <c r="J790" s="28"/>
+      <c r="K790" s="28"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="J791" s="27"/>
-      <c r="K791" s="27"/>
+      <c r="J791" s="28"/>
+      <c r="K791" s="28"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="J792" s="27"/>
-      <c r="K792" s="27"/>
+      <c r="J792" s="28"/>
+      <c r="K792" s="28"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="J793" s="27"/>
-      <c r="K793" s="27"/>
+      <c r="J793" s="28"/>
+      <c r="K793" s="28"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="J794" s="27"/>
-      <c r="K794" s="27"/>
+      <c r="J794" s="28"/>
+      <c r="K794" s="28"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="J795" s="27"/>
-      <c r="K795" s="27"/>
+      <c r="J795" s="28"/>
+      <c r="K795" s="28"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="J796" s="27"/>
-      <c r="K796" s="27"/>
+      <c r="J796" s="28"/>
+      <c r="K796" s="28"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="J797" s="27"/>
-      <c r="K797" s="27"/>
+      <c r="J797" s="28"/>
+      <c r="K797" s="28"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="J798" s="27"/>
-      <c r="K798" s="27"/>
+      <c r="J798" s="28"/>
+      <c r="K798" s="28"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="J799" s="27"/>
-      <c r="K799" s="27"/>
+      <c r="J799" s="28"/>
+      <c r="K799" s="28"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="J800" s="27"/>
-      <c r="K800" s="27"/>
+      <c r="J800" s="28"/>
+      <c r="K800" s="28"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="J801" s="27"/>
-      <c r="K801" s="27"/>
+      <c r="J801" s="28"/>
+      <c r="K801" s="28"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="J802" s="27"/>
-      <c r="K802" s="27"/>
+      <c r="J802" s="28"/>
+      <c r="K802" s="28"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="J803" s="27"/>
-      <c r="K803" s="27"/>
+      <c r="J803" s="28"/>
+      <c r="K803" s="28"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="J804" s="27"/>
-      <c r="K804" s="27"/>
+      <c r="J804" s="28"/>
+      <c r="K804" s="28"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="J805" s="27"/>
-      <c r="K805" s="27"/>
+      <c r="J805" s="28"/>
+      <c r="K805" s="28"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="J806" s="27"/>
-      <c r="K806" s="27"/>
+      <c r="J806" s="28"/>
+      <c r="K806" s="28"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="J807" s="27"/>
-      <c r="K807" s="27"/>
+      <c r="J807" s="28"/>
+      <c r="K807" s="28"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="J808" s="27"/>
-      <c r="K808" s="27"/>
+      <c r="J808" s="28"/>
+      <c r="K808" s="28"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="J809" s="27"/>
-      <c r="K809" s="27"/>
+      <c r="J809" s="28"/>
+      <c r="K809" s="28"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="J810" s="27"/>
-      <c r="K810" s="27"/>
+      <c r="J810" s="28"/>
+      <c r="K810" s="28"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="J811" s="27"/>
-      <c r="K811" s="27"/>
+      <c r="J811" s="28"/>
+      <c r="K811" s="28"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="J812" s="27"/>
-      <c r="K812" s="27"/>
+      <c r="J812" s="28"/>
+      <c r="K812" s="28"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="J813" s="27"/>
-      <c r="K813" s="27"/>
+      <c r="J813" s="28"/>
+      <c r="K813" s="28"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="J814" s="27"/>
-      <c r="K814" s="27"/>
+      <c r="J814" s="28"/>
+      <c r="K814" s="28"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="J815" s="27"/>
-      <c r="K815" s="27"/>
+      <c r="J815" s="28"/>
+      <c r="K815" s="28"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="J816" s="27"/>
-      <c r="K816" s="27"/>
+      <c r="J816" s="28"/>
+      <c r="K816" s="28"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="J817" s="27"/>
-      <c r="K817" s="27"/>
+      <c r="J817" s="28"/>
+      <c r="K817" s="28"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="J818" s="27"/>
-      <c r="K818" s="27"/>
+      <c r="J818" s="28"/>
+      <c r="K818" s="28"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="J819" s="27"/>
-      <c r="K819" s="27"/>
+      <c r="J819" s="28"/>
+      <c r="K819" s="28"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="J820" s="27"/>
-      <c r="K820" s="27"/>
+      <c r="J820" s="28"/>
+      <c r="K820" s="28"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="J821" s="27"/>
-      <c r="K821" s="27"/>
+      <c r="J821" s="28"/>
+      <c r="K821" s="28"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="J822" s="27"/>
-      <c r="K822" s="27"/>
+      <c r="J822" s="28"/>
+      <c r="K822" s="28"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="J823" s="27"/>
-      <c r="K823" s="27"/>
+      <c r="J823" s="28"/>
+      <c r="K823" s="28"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="J824" s="27"/>
-      <c r="K824" s="27"/>
+      <c r="J824" s="28"/>
+      <c r="K824" s="28"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="J825" s="27"/>
-      <c r="K825" s="27"/>
+      <c r="J825" s="28"/>
+      <c r="K825" s="28"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="J826" s="27"/>
-      <c r="K826" s="27"/>
+      <c r="J826" s="28"/>
+      <c r="K826" s="28"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="J827" s="27"/>
-      <c r="K827" s="27"/>
+      <c r="J827" s="28"/>
+      <c r="K827" s="28"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="J828" s="27"/>
-      <c r="K828" s="27"/>
+      <c r="J828" s="28"/>
+      <c r="K828" s="28"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="J829" s="27"/>
-      <c r="K829" s="27"/>
+      <c r="J829" s="28"/>
+      <c r="K829" s="28"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="J830" s="27"/>
-      <c r="K830" s="27"/>
+      <c r="J830" s="28"/>
+      <c r="K830" s="28"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="J831" s="27"/>
-      <c r="K831" s="27"/>
+      <c r="J831" s="28"/>
+      <c r="K831" s="28"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="J832" s="27"/>
-      <c r="K832" s="27"/>
+      <c r="J832" s="28"/>
+      <c r="K832" s="28"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="J833" s="27"/>
-      <c r="K833" s="27"/>
+      <c r="J833" s="28"/>
+      <c r="K833" s="28"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="J834" s="27"/>
-      <c r="K834" s="27"/>
+      <c r="J834" s="28"/>
+      <c r="K834" s="28"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="J835" s="27"/>
-      <c r="K835" s="27"/>
+      <c r="J835" s="28"/>
+      <c r="K835" s="28"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="J836" s="27"/>
-      <c r="K836" s="27"/>
+      <c r="J836" s="28"/>
+      <c r="K836" s="28"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="J837" s="27"/>
-      <c r="K837" s="27"/>
+      <c r="J837" s="28"/>
+      <c r="K837" s="28"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="J838" s="27"/>
-      <c r="K838" s="27"/>
+      <c r="J838" s="28"/>
+      <c r="K838" s="28"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="J839" s="27"/>
-      <c r="K839" s="27"/>
+      <c r="J839" s="28"/>
+      <c r="K839" s="28"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="J840" s="27"/>
-      <c r="K840" s="27"/>
+      <c r="J840" s="28"/>
+      <c r="K840" s="28"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="J841" s="27"/>
-      <c r="K841" s="27"/>
+      <c r="J841" s="28"/>
+      <c r="K841" s="28"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="J842" s="27"/>
-      <c r="K842" s="27"/>
+      <c r="J842" s="28"/>
+      <c r="K842" s="28"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="J843" s="27"/>
-      <c r="K843" s="27"/>
+      <c r="J843" s="28"/>
+      <c r="K843" s="28"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="J844" s="27"/>
-      <c r="K844" s="27"/>
+      <c r="J844" s="28"/>
+      <c r="K844" s="28"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="J845" s="27"/>
-      <c r="K845" s="27"/>
+      <c r="J845" s="28"/>
+      <c r="K845" s="28"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="J846" s="27"/>
-      <c r="K846" s="27"/>
+      <c r="J846" s="28"/>
+      <c r="K846" s="28"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="J847" s="27"/>
-      <c r="K847" s="27"/>
+      <c r="J847" s="28"/>
+      <c r="K847" s="28"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="J848" s="27"/>
-      <c r="K848" s="27"/>
+      <c r="J848" s="28"/>
+      <c r="K848" s="28"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="J849" s="27"/>
-      <c r="K849" s="27"/>
+      <c r="J849" s="28"/>
+      <c r="K849" s="28"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="J850" s="27"/>
-      <c r="K850" s="27"/>
+      <c r="J850" s="28"/>
+      <c r="K850" s="28"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="J851" s="27"/>
-      <c r="K851" s="27"/>
+      <c r="J851" s="28"/>
+      <c r="K851" s="28"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="J852" s="27"/>
-      <c r="K852" s="27"/>
+      <c r="J852" s="28"/>
+      <c r="K852" s="28"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="J853" s="27"/>
-      <c r="K853" s="27"/>
+      <c r="J853" s="28"/>
+      <c r="K853" s="28"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="J854" s="27"/>
-      <c r="K854" s="27"/>
+      <c r="J854" s="28"/>
+      <c r="K854" s="28"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="J855" s="27"/>
-      <c r="K855" s="27"/>
+      <c r="J855" s="28"/>
+      <c r="K855" s="28"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="J856" s="27"/>
-      <c r="K856" s="27"/>
+      <c r="J856" s="28"/>
+      <c r="K856" s="28"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="J857" s="27"/>
-      <c r="K857" s="27"/>
+      <c r="J857" s="28"/>
+      <c r="K857" s="28"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="J858" s="27"/>
-      <c r="K858" s="27"/>
+      <c r="J858" s="28"/>
+      <c r="K858" s="28"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="J859" s="27"/>
-      <c r="K859" s="27"/>
+      <c r="J859" s="28"/>
+      <c r="K859" s="28"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="J860" s="27"/>
-      <c r="K860" s="27"/>
+      <c r="J860" s="28"/>
+      <c r="K860" s="28"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="J861" s="27"/>
-      <c r="K861" s="27"/>
+      <c r="J861" s="28"/>
+      <c r="K861" s="28"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="J862" s="27"/>
-      <c r="K862" s="27"/>
+      <c r="J862" s="28"/>
+      <c r="K862" s="28"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="J863" s="27"/>
-      <c r="K863" s="27"/>
+      <c r="J863" s="28"/>
+      <c r="K863" s="28"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="J864" s="27"/>
-      <c r="K864" s="27"/>
+      <c r="J864" s="28"/>
+      <c r="K864" s="28"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="J865" s="27"/>
-      <c r="K865" s="27"/>
+      <c r="J865" s="28"/>
+      <c r="K865" s="28"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="J866" s="27"/>
-      <c r="K866" s="27"/>
+      <c r="J866" s="28"/>
+      <c r="K866" s="28"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="J867" s="27"/>
-      <c r="K867" s="27"/>
+      <c r="J867" s="28"/>
+      <c r="K867" s="28"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="J868" s="27"/>
-      <c r="K868" s="27"/>
+      <c r="J868" s="28"/>
+      <c r="K868" s="28"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="J869" s="27"/>
-      <c r="K869" s="27"/>
+      <c r="J869" s="28"/>
+      <c r="K869" s="28"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="J870" s="27"/>
-      <c r="K870" s="27"/>
+      <c r="J870" s="28"/>
+      <c r="K870" s="28"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="J871" s="27"/>
-      <c r="K871" s="27"/>
+      <c r="J871" s="28"/>
+      <c r="K871" s="28"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="J872" s="27"/>
-      <c r="K872" s="27"/>
+      <c r="J872" s="28"/>
+      <c r="K872" s="28"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="J873" s="27"/>
-      <c r="K873" s="27"/>
+      <c r="J873" s="28"/>
+      <c r="K873" s="28"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="J874" s="27"/>
-      <c r="K874" s="27"/>
+      <c r="J874" s="28"/>
+      <c r="K874" s="28"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="J875" s="27"/>
-      <c r="K875" s="27"/>
+      <c r="J875" s="28"/>
+      <c r="K875" s="28"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="J876" s="27"/>
-      <c r="K876" s="27"/>
+      <c r="J876" s="28"/>
+      <c r="K876" s="28"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="J877" s="27"/>
-      <c r="K877" s="27"/>
+      <c r="J877" s="28"/>
+      <c r="K877" s="28"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="J878" s="27"/>
-      <c r="K878" s="27"/>
+      <c r="J878" s="28"/>
+      <c r="K878" s="28"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="J879" s="27"/>
-      <c r="K879" s="27"/>
+      <c r="J879" s="28"/>
+      <c r="K879" s="28"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="J880" s="27"/>
-      <c r="K880" s="27"/>
+      <c r="J880" s="28"/>
+      <c r="K880" s="28"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="J881" s="27"/>
-      <c r="K881" s="27"/>
+      <c r="J881" s="28"/>
+      <c r="K881" s="28"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="J882" s="27"/>
-      <c r="K882" s="27"/>
+      <c r="J882" s="28"/>
+      <c r="K882" s="28"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="J883" s="27"/>
-      <c r="K883" s="27"/>
+      <c r="J883" s="28"/>
+      <c r="K883" s="28"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="J884" s="27"/>
-      <c r="K884" s="27"/>
+      <c r="J884" s="28"/>
+      <c r="K884" s="28"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="J885" s="27"/>
-      <c r="K885" s="27"/>
+      <c r="J885" s="28"/>
+      <c r="K885" s="28"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="J886" s="27"/>
-      <c r="K886" s="27"/>
+      <c r="J886" s="28"/>
+      <c r="K886" s="28"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="J887" s="27"/>
-      <c r="K887" s="27"/>
+      <c r="J887" s="28"/>
+      <c r="K887" s="28"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="J888" s="27"/>
-      <c r="K888" s="27"/>
+      <c r="J888" s="28"/>
+      <c r="K888" s="28"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="J889" s="27"/>
-      <c r="K889" s="27"/>
+      <c r="J889" s="28"/>
+      <c r="K889" s="28"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="J890" s="27"/>
-      <c r="K890" s="27"/>
+      <c r="J890" s="28"/>
+      <c r="K890" s="28"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="J891" s="27"/>
-      <c r="K891" s="27"/>
+      <c r="J891" s="28"/>
+      <c r="K891" s="28"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="J892" s="27"/>
-      <c r="K892" s="27"/>
+      <c r="J892" s="28"/>
+      <c r="K892" s="28"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="J893" s="27"/>
-      <c r="K893" s="27"/>
+      <c r="J893" s="28"/>
+      <c r="K893" s="28"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="J894" s="27"/>
-      <c r="K894" s="27"/>
+      <c r="J894" s="28"/>
+      <c r="K894" s="28"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="J895" s="27"/>
-      <c r="K895" s="27"/>
+      <c r="J895" s="28"/>
+      <c r="K895" s="28"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="J896" s="27"/>
-      <c r="K896" s="27"/>
+      <c r="J896" s="28"/>
+      <c r="K896" s="28"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="J897" s="27"/>
-      <c r="K897" s="27"/>
+      <c r="J897" s="28"/>
+      <c r="K897" s="28"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="J898" s="27"/>
-      <c r="K898" s="27"/>
+      <c r="J898" s="28"/>
+      <c r="K898" s="28"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="J899" s="27"/>
-      <c r="K899" s="27"/>
+      <c r="J899" s="28"/>
+      <c r="K899" s="28"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="J900" s="27"/>
-      <c r="K900" s="27"/>
+      <c r="J900" s="28"/>
+      <c r="K900" s="28"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="J901" s="27"/>
-      <c r="K901" s="27"/>
+      <c r="J901" s="28"/>
+      <c r="K901" s="28"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="J902" s="27"/>
-      <c r="K902" s="27"/>
+      <c r="J902" s="28"/>
+      <c r="K902" s="28"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="J903" s="27"/>
-      <c r="K903" s="27"/>
+      <c r="J903" s="28"/>
+      <c r="K903" s="28"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="J904" s="27"/>
-      <c r="K904" s="27"/>
+      <c r="J904" s="28"/>
+      <c r="K904" s="28"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="J905" s="27"/>
-      <c r="K905" s="27"/>
+      <c r="J905" s="28"/>
+      <c r="K905" s="28"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="J906" s="27"/>
-      <c r="K906" s="27"/>
+      <c r="J906" s="28"/>
+      <c r="K906" s="28"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="J907" s="27"/>
-      <c r="K907" s="27"/>
+      <c r="J907" s="28"/>
+      <c r="K907" s="28"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="J908" s="27"/>
-      <c r="K908" s="27"/>
+      <c r="J908" s="28"/>
+      <c r="K908" s="28"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="J909" s="27"/>
-      <c r="K909" s="27"/>
+      <c r="J909" s="28"/>
+      <c r="K909" s="28"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="J910" s="27"/>
-      <c r="K910" s="27"/>
+      <c r="J910" s="28"/>
+      <c r="K910" s="28"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="J911" s="27"/>
-      <c r="K911" s="27"/>
+      <c r="J911" s="28"/>
+      <c r="K911" s="28"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="J912" s="27"/>
-      <c r="K912" s="27"/>
+      <c r="J912" s="28"/>
+      <c r="K912" s="28"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="J913" s="27"/>
-      <c r="K913" s="27"/>
+      <c r="J913" s="28"/>
+      <c r="K913" s="28"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="J914" s="27"/>
-      <c r="K914" s="27"/>
+      <c r="J914" s="28"/>
+      <c r="K914" s="28"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="J915" s="27"/>
-      <c r="K915" s="27"/>
+      <c r="J915" s="28"/>
+      <c r="K915" s="28"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="J916" s="27"/>
-      <c r="K916" s="27"/>
+      <c r="J916" s="28"/>
+      <c r="K916" s="28"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="J917" s="27"/>
-      <c r="K917" s="27"/>
+      <c r="J917" s="28"/>
+      <c r="K917" s="28"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="J918" s="27"/>
-      <c r="K918" s="27"/>
+      <c r="J918" s="28"/>
+      <c r="K918" s="28"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="J919" s="27"/>
-      <c r="K919" s="27"/>
+      <c r="J919" s="28"/>
+      <c r="K919" s="28"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="J920" s="27"/>
-      <c r="K920" s="27"/>
+      <c r="J920" s="28"/>
+      <c r="K920" s="28"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="J921" s="27"/>
-      <c r="K921" s="27"/>
+      <c r="J921" s="28"/>
+      <c r="K921" s="28"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="J922" s="27"/>
-      <c r="K922" s="27"/>
+      <c r="J922" s="28"/>
+      <c r="K922" s="28"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="J923" s="27"/>
-      <c r="K923" s="27"/>
+      <c r="J923" s="28"/>
+      <c r="K923" s="28"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="J924" s="27"/>
-      <c r="K924" s="27"/>
+      <c r="J924" s="28"/>
+      <c r="K924" s="28"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="J925" s="27"/>
-      <c r="K925" s="27"/>
+      <c r="J925" s="28"/>
+      <c r="K925" s="28"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="J926" s="27"/>
-      <c r="K926" s="27"/>
+      <c r="J926" s="28"/>
+      <c r="K926" s="28"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="J927" s="27"/>
-      <c r="K927" s="27"/>
+      <c r="J927" s="28"/>
+      <c r="K927" s="28"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="J928" s="27"/>
-      <c r="K928" s="27"/>
+      <c r="J928" s="28"/>
+      <c r="K928" s="28"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="J929" s="27"/>
-      <c r="K929" s="27"/>
+      <c r="J929" s="28"/>
+      <c r="K929" s="28"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="J930" s="27"/>
-      <c r="K930" s="27"/>
+      <c r="J930" s="28"/>
+      <c r="K930" s="28"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="J931" s="27"/>
-      <c r="K931" s="27"/>
+      <c r="J931" s="28"/>
+      <c r="K931" s="28"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="J932" s="27"/>
-      <c r="K932" s="27"/>
+      <c r="J932" s="28"/>
+      <c r="K932" s="28"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="J933" s="27"/>
-      <c r="K933" s="27"/>
+      <c r="J933" s="28"/>
+      <c r="K933" s="28"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="J934" s="27"/>
-      <c r="K934" s="27"/>
+      <c r="J934" s="28"/>
+      <c r="K934" s="28"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="J935" s="27"/>
-      <c r="K935" s="27"/>
+      <c r="J935" s="28"/>
+      <c r="K935" s="28"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="J936" s="27"/>
-      <c r="K936" s="27"/>
+      <c r="J936" s="28"/>
+      <c r="K936" s="28"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="J937" s="27"/>
-      <c r="K937" s="27"/>
+      <c r="J937" s="28"/>
+      <c r="K937" s="28"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="J938" s="27"/>
-      <c r="K938" s="27"/>
+      <c r="J938" s="28"/>
+      <c r="K938" s="28"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="J939" s="27"/>
-      <c r="K939" s="27"/>
+      <c r="J939" s="28"/>
+      <c r="K939" s="28"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="J940" s="27"/>
-      <c r="K940" s="27"/>
+      <c r="J940" s="28"/>
+      <c r="K940" s="28"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="J941" s="27"/>
-      <c r="K941" s="27"/>
+      <c r="J941" s="28"/>
+      <c r="K941" s="28"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="J942" s="27"/>
-      <c r="K942" s="27"/>
+      <c r="J942" s="28"/>
+      <c r="K942" s="28"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="J943" s="27"/>
-      <c r="K943" s="27"/>
+      <c r="J943" s="28"/>
+      <c r="K943" s="28"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="J944" s="27"/>
-      <c r="K944" s="27"/>
+      <c r="J944" s="28"/>
+      <c r="K944" s="28"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="J945" s="27"/>
-      <c r="K945" s="27"/>
+      <c r="J945" s="28"/>
+      <c r="K945" s="28"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="J946" s="27"/>
-      <c r="K946" s="27"/>
+      <c r="J946" s="28"/>
+      <c r="K946" s="28"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="J947" s="27"/>
-      <c r="K947" s="27"/>
+      <c r="J947" s="28"/>
+      <c r="K947" s="28"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="J948" s="27"/>
-      <c r="K948" s="27"/>
+      <c r="J948" s="28"/>
+      <c r="K948" s="28"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="J949" s="27"/>
-      <c r="K949" s="27"/>
+      <c r="J949" s="28"/>
+      <c r="K949" s="28"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="J950" s="27"/>
-      <c r="K950" s="27"/>
+      <c r="J950" s="28"/>
+      <c r="K950" s="28"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="J951" s="27"/>
-      <c r="K951" s="27"/>
+      <c r="J951" s="28"/>
+      <c r="K951" s="28"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="J952" s="27"/>
-      <c r="K952" s="27"/>
+      <c r="J952" s="28"/>
+      <c r="K952" s="28"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="J953" s="27"/>
-      <c r="K953" s="27"/>
+      <c r="J953" s="28"/>
+      <c r="K953" s="28"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="J954" s="27"/>
-      <c r="K954" s="27"/>
+      <c r="J954" s="28"/>
+      <c r="K954" s="28"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="J955" s="27"/>
-      <c r="K955" s="27"/>
+      <c r="J955" s="28"/>
+      <c r="K955" s="28"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="J956" s="27"/>
-      <c r="K956" s="27"/>
+      <c r="J956" s="28"/>
+      <c r="K956" s="28"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="J957" s="27"/>
-      <c r="K957" s="27"/>
+      <c r="J957" s="28"/>
+      <c r="K957" s="28"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="J958" s="27"/>
-      <c r="K958" s="27"/>
+      <c r="J958" s="28"/>
+      <c r="K958" s="28"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="J959" s="27"/>
-      <c r="K959" s="27"/>
+      <c r="J959" s="28"/>
+      <c r="K959" s="28"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="J960" s="27"/>
-      <c r="K960" s="27"/>
+      <c r="J960" s="28"/>
+      <c r="K960" s="28"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="J961" s="27"/>
-      <c r="K961" s="27"/>
+      <c r="J961" s="28"/>
+      <c r="K961" s="28"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="J962" s="27"/>
-      <c r="K962" s="27"/>
+      <c r="J962" s="28"/>
+      <c r="K962" s="28"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="J963" s="27"/>
-      <c r="K963" s="27"/>
+      <c r="J963" s="28"/>
+      <c r="K963" s="28"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="J964" s="27"/>
-      <c r="K964" s="27"/>
+      <c r="J964" s="28"/>
+      <c r="K964" s="28"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="J965" s="27"/>
-      <c r="K965" s="27"/>
+      <c r="J965" s="28"/>
+      <c r="K965" s="28"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="J966" s="27"/>
-      <c r="K966" s="27"/>
+      <c r="J966" s="28"/>
+      <c r="K966" s="28"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="J967" s="27"/>
-      <c r="K967" s="27"/>
+      <c r="J967" s="28"/>
+      <c r="K967" s="28"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="J968" s="27"/>
-      <c r="K968" s="27"/>
+      <c r="J968" s="28"/>
+      <c r="K968" s="28"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="J969" s="27"/>
-      <c r="K969" s="27"/>
+      <c r="J969" s="28"/>
+      <c r="K969" s="28"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="J970" s="27"/>
-      <c r="K970" s="27"/>
+      <c r="J970" s="28"/>
+      <c r="K970" s="28"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="J971" s="27"/>
-      <c r="K971" s="27"/>
+      <c r="J971" s="28"/>
+      <c r="K971" s="28"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="J972" s="27"/>
-      <c r="K972" s="27"/>
+      <c r="J972" s="28"/>
+      <c r="K972" s="28"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="J973" s="27"/>
-      <c r="K973" s="27"/>
+      <c r="J973" s="28"/>
+      <c r="K973" s="28"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="J974" s="27"/>
-      <c r="K974" s="27"/>
+      <c r="J974" s="28"/>
+      <c r="K974" s="28"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="J975" s="27"/>
-      <c r="K975" s="27"/>
+      <c r="J975" s="28"/>
+      <c r="K975" s="28"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="J976" s="27"/>
-      <c r="K976" s="27"/>
+      <c r="J976" s="28"/>
+      <c r="K976" s="28"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="J977" s="27"/>
-      <c r="K977" s="27"/>
+      <c r="J977" s="28"/>
+      <c r="K977" s="28"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="J978" s="27"/>
-      <c r="K978" s="27"/>
+      <c r="J978" s="28"/>
+      <c r="K978" s="28"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="J979" s="27"/>
-      <c r="K979" s="27"/>
+      <c r="J979" s="28"/>
+      <c r="K979" s="28"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="J980" s="27"/>
-      <c r="K980" s="27"/>
+      <c r="J980" s="28"/>
+      <c r="K980" s="28"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="J981" s="27"/>
-      <c r="K981" s="27"/>
+      <c r="J981" s="28"/>
+      <c r="K981" s="28"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="J982" s="27"/>
-      <c r="K982" s="27"/>
+      <c r="J982" s="28"/>
+      <c r="K982" s="28"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="J983" s="27"/>
-      <c r="K983" s="27"/>
+      <c r="J983" s="28"/>
+      <c r="K983" s="28"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="J984" s="27"/>
-      <c r="K984" s="27"/>
+      <c r="J984" s="28"/>
+      <c r="K984" s="28"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="J985" s="27"/>
-      <c r="K985" s="27"/>
+      <c r="J985" s="28"/>
+      <c r="K985" s="28"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="J986" s="27"/>
-      <c r="K986" s="27"/>
+      <c r="J986" s="28"/>
+      <c r="K986" s="28"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="J987" s="27"/>
-      <c r="K987" s="27"/>
+      <c r="J987" s="28"/>
+      <c r="K987" s="28"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="J988" s="27"/>
-      <c r="K988" s="27"/>
+      <c r="J988" s="28"/>
+      <c r="K988" s="28"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="J989" s="27"/>
-      <c r="K989" s="27"/>
+      <c r="J989" s="28"/>
+      <c r="K989" s="28"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="J990" s="27"/>
-      <c r="K990" s="27"/>
+      <c r="J990" s="28"/>
+      <c r="K990" s="28"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="J991" s="27"/>
-      <c r="K991" s="27"/>
+      <c r="J991" s="28"/>
+      <c r="K991" s="28"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="J992" s="27"/>
-      <c r="K992" s="27"/>
+      <c r="J992" s="28"/>
+      <c r="K992" s="28"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="J993" s="27"/>
-      <c r="K993" s="27"/>
+      <c r="J993" s="28"/>
+      <c r="K993" s="28"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="J994" s="27"/>
-      <c r="K994" s="27"/>
+      <c r="J994" s="28"/>
+      <c r="K994" s="28"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="J995" s="27"/>
-      <c r="K995" s="27"/>
+      <c r="J995" s="28"/>
+      <c r="K995" s="28"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="J996" s="27"/>
-      <c r="K996" s="27"/>
+      <c r="J996" s="28"/>
+      <c r="K996" s="28"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="J997" s="27"/>
-      <c r="K997" s="27"/>
+      <c r="J997" s="28"/>
+      <c r="K997" s="28"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="J998" s="27"/>
-      <c r="K998" s="27"/>
+      <c r="J998" s="28"/>
+      <c r="K998" s="28"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="J999" s="27"/>
-      <c r="K999" s="27"/>
+      <c r="J999" s="28"/>
+      <c r="K999" s="28"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="J1000" s="27"/>
-      <c r="K1000" s="27"/>
+      <c r="J1000" s="28"/>
+      <c r="K1000" s="28"/>
     </row>
     <row r="1001" ht="15.75" customHeight="1">
-      <c r="J1001" s="27"/>
-      <c r="K1001" s="27"/>
+      <c r="J1001" s="28"/>
+      <c r="K1001" s="28"/>
     </row>
     <row r="1002" ht="15.75" customHeight="1">
-      <c r="J1002" s="27"/>
-      <c r="K1002" s="27"/>
+      <c r="J1002" s="28"/>
+      <c r="K1002" s="28"/>
     </row>
   </sheetData>
   <printOptions/>
